--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  HERRADURA  MAYO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  HERRADURA  MAYO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -2515,7 +2515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="367">
+  <cellXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3106,13 +3106,28 @@
     <xf numFmtId="16" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="18" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="18" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="18" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3274,17 +3289,6 @@
     <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3294,9 +3298,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFCCFF33"/>
       <color rgb="FFFF9900"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFFCCCC"/>
@@ -5738,23 +5742,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="321"/>
-      <c r="C1" s="323" t="s">
+      <c r="B1" s="328"/>
+      <c r="C1" s="330" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
+      <c r="I1" s="331"/>
+      <c r="J1" s="331"/>
+      <c r="K1" s="331"/>
+      <c r="L1" s="331"/>
+      <c r="M1" s="331"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="322"/>
+      <c r="B2" s="329"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -5764,21 +5768,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="325" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="326"/>
+      <c r="B3" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="333"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="327" t="s">
+      <c r="H3" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="327"/>
+      <c r="I3" s="334"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="330" t="s">
+      <c r="R3" s="337" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5793,14 +5797,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="332" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="333"/>
-      <c r="H4" s="334" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="335"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -5810,11 +5814,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="336" t="s">
+      <c r="P4" s="343" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="337"/>
-      <c r="R4" s="331"/>
+      <c r="Q4" s="344"/>
+      <c r="R4" s="338"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7619,11 +7623,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="328">
+      <c r="M49" s="335">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="339">
+      <c r="N49" s="346">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -7658,8 +7662,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="329"/>
-      <c r="N50" s="340"/>
+      <c r="M50" s="336"/>
+      <c r="N50" s="347"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -7751,29 +7755,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="341" t="s">
+      <c r="H55" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="342"/>
+      <c r="I55" s="349"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="343">
+      <c r="K55" s="350">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="344"/>
-      <c r="M55" s="345">
+      <c r="L55" s="351"/>
+      <c r="M55" s="352">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="346"/>
+      <c r="N55" s="353"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="338" t="s">
+      <c r="D56" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="338"/>
+      <c r="E56" s="345"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -7784,22 +7788,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="309" t="s">
+      <c r="D57" s="316" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="309"/>
+      <c r="E57" s="316"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="310" t="s">
+      <c r="I57" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="311"/>
-      <c r="K57" s="312">
+      <c r="J57" s="318"/>
+      <c r="K57" s="319">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="313"/>
+      <c r="L57" s="320"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -7830,11 +7834,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="314">
+      <c r="K59" s="321">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="315"/>
+      <c r="L59" s="322"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -7851,22 +7855,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="316" t="s">
+      <c r="D61" s="323" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="317"/>
+      <c r="E61" s="324"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="318" t="s">
+      <c r="I61" s="325" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="319"/>
-      <c r="K61" s="320">
+      <c r="J61" s="326"/>
+      <c r="K61" s="327">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="320"/>
+      <c r="L61" s="327"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -8181,13 +8185,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="363">
+      <c r="A9" s="308">
         <v>45052</v>
       </c>
-      <c r="B9" s="364" t="s">
+      <c r="B9" s="309" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="365"/>
+      <c r="C9" s="310"/>
       <c r="D9" s="181"/>
       <c r="E9" s="149"/>
       <c r="F9" s="183">
@@ -8421,7 +8425,7 @@
       <c r="A23" s="181">
         <v>45059</v>
       </c>
-      <c r="B23" s="366" t="s">
+      <c r="B23" s="311" t="s">
         <v>252</v>
       </c>
       <c r="C23" s="228">
@@ -10693,23 +10697,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="321"/>
-      <c r="C1" s="323" t="s">
+      <c r="B1" s="328"/>
+      <c r="C1" s="330" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
+      <c r="I1" s="331"/>
+      <c r="J1" s="331"/>
+      <c r="K1" s="331"/>
+      <c r="L1" s="331"/>
+      <c r="M1" s="331"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="322"/>
+      <c r="B2" s="329"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10719,21 +10723,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="325" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="326"/>
+      <c r="B3" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="333"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="327" t="s">
+      <c r="H3" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="327"/>
+      <c r="I3" s="334"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="330" t="s">
+      <c r="R3" s="337" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10748,14 +10752,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="332" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="333"/>
-      <c r="H4" s="334" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="335"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -10765,11 +10769,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="348" t="s">
+      <c r="P4" s="355" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="349"/>
-      <c r="R4" s="347"/>
+      <c r="Q4" s="356"/>
+      <c r="R4" s="354"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -12570,11 +12574,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="328">
+      <c r="M45" s="335">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="339">
+      <c r="N45" s="346">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -12604,8 +12608,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="329"/>
-      <c r="N46" s="340"/>
+      <c r="M46" s="336"/>
+      <c r="N46" s="347"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12697,29 +12701,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="341" t="s">
+      <c r="H51" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="342"/>
+      <c r="I51" s="349"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="343">
+      <c r="K51" s="350">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="344"/>
-      <c r="M51" s="345">
+      <c r="L51" s="351"/>
+      <c r="M51" s="352">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="346"/>
+      <c r="N51" s="353"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="338" t="s">
+      <c r="D52" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="338"/>
+      <c r="E52" s="345"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -12730,22 +12734,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="309" t="s">
+      <c r="D53" s="316" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="309"/>
+      <c r="E53" s="316"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="310" t="s">
+      <c r="I53" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="311"/>
-      <c r="K53" s="312">
+      <c r="J53" s="318"/>
+      <c r="K53" s="319">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="313"/>
+      <c r="L53" s="320"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -12776,11 +12780,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="314">
+      <c r="K55" s="321">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="315"/>
+      <c r="L55" s="322"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -12797,22 +12801,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="316" t="s">
+      <c r="D57" s="323" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="317"/>
+      <c r="E57" s="324"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="318" t="s">
+      <c r="I57" s="325" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="319"/>
-      <c r="K57" s="320">
+      <c r="J57" s="326"/>
+      <c r="K57" s="327">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="320"/>
+      <c r="L57" s="327"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -14388,10 +14392,10 @@
   <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J64" sqref="J63:J64"/>
+      <selection pane="bottomRight" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14416,23 +14420,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="321"/>
-      <c r="C1" s="323" t="s">
+      <c r="B1" s="328"/>
+      <c r="C1" s="330" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
+      <c r="I1" s="331"/>
+      <c r="J1" s="331"/>
+      <c r="K1" s="331"/>
+      <c r="L1" s="331"/>
+      <c r="M1" s="331"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="322"/>
+      <c r="B2" s="329"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -14442,21 +14446,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="325" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="326"/>
+      <c r="B3" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="333"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="327" t="s">
+      <c r="H3" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="327"/>
+      <c r="I3" s="334"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="330" t="s">
+      <c r="R3" s="337" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14471,14 +14475,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="332" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="333"/>
-      <c r="H4" s="334" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="335"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -14488,11 +14492,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="348" t="s">
+      <c r="P4" s="355" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="349"/>
-      <c r="R4" s="347"/>
+      <c r="Q4" s="356"/>
+      <c r="R4" s="354"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16285,11 +16289,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="328">
+      <c r="M45" s="335">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="339">
+      <c r="N45" s="346">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -16319,8 +16323,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="329"/>
-      <c r="N46" s="340"/>
+      <c r="M46" s="336"/>
+      <c r="N46" s="347"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -16412,29 +16416,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="341" t="s">
+      <c r="H51" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="342"/>
+      <c r="I51" s="349"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="343">
+      <c r="K51" s="350">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="344"/>
-      <c r="M51" s="345">
+      <c r="L51" s="351"/>
+      <c r="M51" s="352">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="346"/>
+      <c r="N51" s="353"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="338" t="s">
+      <c r="D52" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="338"/>
+      <c r="E52" s="345"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -16445,22 +16449,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="309" t="s">
+      <c r="D53" s="316" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="309"/>
+      <c r="E53" s="316"/>
       <c r="F53" s="131">
-        <v>-2879446.04</v>
-      </c>
-      <c r="I53" s="310" t="s">
+        <v>-2869426.04</v>
+      </c>
+      <c r="I53" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="311"/>
-      <c r="K53" s="350">
+      <c r="J53" s="318"/>
+      <c r="K53" s="357">
         <f>F55+F56+F57</f>
-        <v>-42041.369999999937</v>
-      </c>
-      <c r="L53" s="351"/>
+        <v>-32021.369999999937</v>
+      </c>
+      <c r="L53" s="358"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -16484,18 +16488,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>-415321.70999999996</v>
+        <v>-405301.70999999996</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="352">
+      <c r="K55" s="359">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="353"/>
+      <c r="L55" s="360"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -16512,22 +16516,22 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="316" t="s">
+      <c r="D57" s="323" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="317"/>
+      <c r="E57" s="324"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
-      <c r="I57" s="354" t="s">
+      <c r="I57" s="361" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="355"/>
-      <c r="K57" s="356">
+      <c r="J57" s="362"/>
+      <c r="K57" s="363">
         <f>K53+K55</f>
-        <v>-272595.91999999993</v>
-      </c>
-      <c r="L57" s="356"/>
+        <v>-262575.91999999993</v>
+      </c>
+      <c r="L57" s="363"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -16689,8 +16693,8 @@
   <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16935,13 +16939,13 @@
         <v>127</v>
       </c>
       <c r="C14" s="149">
-        <v>81287.320000000007</v>
+        <v>81267.320000000007</v>
       </c>
       <c r="D14" s="181"/>
       <c r="E14" s="149"/>
       <c r="F14" s="183">
         <f t="shared" si="0"/>
-        <v>749232.60000000009</v>
+        <v>749212.60000000009</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16958,7 +16962,7 @@
       <c r="E15" s="149"/>
       <c r="F15" s="183">
         <f t="shared" si="0"/>
-        <v>818894.50000000012</v>
+        <v>818874.50000000012</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16975,7 +16979,7 @@
       <c r="E16" s="149"/>
       <c r="F16" s="183">
         <f t="shared" si="0"/>
-        <v>899278.70000000007</v>
+        <v>899258.70000000007</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16992,7 +16996,7 @@
       <c r="E17" s="149"/>
       <c r="F17" s="183">
         <f t="shared" si="0"/>
-        <v>925845.50000000012</v>
+        <v>925825.50000000012</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17009,7 +17013,7 @@
       <c r="E18" s="149"/>
       <c r="F18" s="183">
         <f t="shared" si="0"/>
-        <v>997888.70000000007</v>
+        <v>997868.70000000007</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17026,7 +17030,7 @@
       <c r="E19" s="149"/>
       <c r="F19" s="183">
         <f t="shared" si="0"/>
-        <v>1063941.1000000001</v>
+        <v>1063921.1000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17043,7 +17047,7 @@
       <c r="E20" s="149"/>
       <c r="F20" s="183">
         <f t="shared" si="0"/>
-        <v>1144382.7000000002</v>
+        <v>1144362.7000000002</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17056,11 +17060,11 @@
       <c r="C21" s="149">
         <v>17596.8</v>
       </c>
-      <c r="D21" s="181"/>
+      <c r="D21" s="308"/>
       <c r="E21" s="149"/>
       <c r="F21" s="183">
         <f t="shared" si="0"/>
-        <v>1161979.5000000002</v>
+        <v>1161959.5000000002</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17077,7 +17081,7 @@
       <c r="E22" s="149"/>
       <c r="F22" s="183">
         <f t="shared" si="0"/>
-        <v>1237105.5500000003</v>
+        <v>1237085.5500000003</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17094,7 +17098,7 @@
       <c r="E23" s="149"/>
       <c r="F23" s="183">
         <f t="shared" si="0"/>
-        <v>1287323.5500000003</v>
+        <v>1287303.5500000003</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -17111,7 +17115,7 @@
       <c r="E24" s="149"/>
       <c r="F24" s="183">
         <f t="shared" si="0"/>
-        <v>1338273.9500000002</v>
+        <v>1338253.9500000002</v>
       </c>
       <c r="G24" s="184"/>
     </row>
@@ -17129,7 +17133,7 @@
       <c r="E25" s="149"/>
       <c r="F25" s="183">
         <f t="shared" si="0"/>
-        <v>1429868.9700000002</v>
+        <v>1429848.9700000002</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17146,7 +17150,7 @@
       <c r="E26" s="149"/>
       <c r="F26" s="183">
         <f t="shared" si="0"/>
-        <v>1587205.7700000003</v>
+        <v>1587185.7700000003</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17163,7 +17167,7 @@
       <c r="E27" s="149"/>
       <c r="F27" s="183">
         <f t="shared" si="0"/>
-        <v>1589371.7700000003</v>
+        <v>1589351.7700000003</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17180,7 +17184,7 @@
       <c r="E28" s="149"/>
       <c r="F28" s="183">
         <f t="shared" si="0"/>
-        <v>1597358.9700000002</v>
+        <v>1597338.9700000002</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17197,7 +17201,7 @@
       <c r="E29" s="149"/>
       <c r="F29" s="183">
         <f t="shared" si="0"/>
-        <v>1654874.4500000002</v>
+        <v>1654854.4500000002</v>
       </c>
       <c r="J29" s="149">
         <v>0</v>
@@ -17217,7 +17221,7 @@
       <c r="E30" s="149"/>
       <c r="F30" s="183">
         <f t="shared" si="0"/>
-        <v>1809961.1600000001</v>
+        <v>1809941.1600000001</v>
       </c>
       <c r="J30" s="149">
         <v>0</v>
@@ -17237,7 +17241,7 @@
       <c r="E31" s="149"/>
       <c r="F31" s="183">
         <f t="shared" si="0"/>
-        <v>1875044.56</v>
+        <v>1875024.56</v>
       </c>
       <c r="J31" s="149">
         <v>0</v>
@@ -17257,7 +17261,7 @@
       <c r="E32" s="149"/>
       <c r="F32" s="183">
         <f t="shared" si="0"/>
-        <v>1882192.36</v>
+        <v>1882172.36</v>
       </c>
       <c r="G32" s="184"/>
       <c r="J32" s="149">
@@ -17278,7 +17282,7 @@
       <c r="E33" s="149"/>
       <c r="F33" s="183">
         <f t="shared" si="0"/>
-        <v>1961043.7100000002</v>
+        <v>1961023.7100000002</v>
       </c>
       <c r="J33" s="149">
         <v>0</v>
@@ -17298,7 +17302,7 @@
       <c r="E34" s="149"/>
       <c r="F34" s="183">
         <f t="shared" si="0"/>
-        <v>2004960.5100000002</v>
+        <v>2004940.5100000002</v>
       </c>
       <c r="J34" s="149">
         <v>0</v>
@@ -17318,7 +17322,7 @@
       <c r="E35" s="149"/>
       <c r="F35" s="183">
         <f t="shared" si="0"/>
-        <v>2063332.3300000003</v>
+        <v>2063312.3300000003</v>
       </c>
       <c r="J35" s="149">
         <v>0</v>
@@ -17338,7 +17342,7 @@
       <c r="E36" s="149"/>
       <c r="F36" s="183">
         <f t="shared" si="0"/>
-        <v>2113132.33</v>
+        <v>2113112.33</v>
       </c>
       <c r="J36" s="133">
         <v>0</v>
@@ -17358,7 +17362,7 @@
       <c r="E37" s="149"/>
       <c r="F37" s="183">
         <f t="shared" si="0"/>
-        <v>2132512.33</v>
+        <v>2132492.33</v>
       </c>
       <c r="J37" s="187">
         <f>SUM(J29:J36)</f>
@@ -17379,7 +17383,7 @@
       <c r="E38" s="149"/>
       <c r="F38" s="183">
         <f t="shared" si="0"/>
-        <v>2236238.06</v>
+        <v>2236218.06</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17396,7 +17400,7 @@
       <c r="E39" s="149"/>
       <c r="F39" s="183">
         <f t="shared" si="0"/>
-        <v>2326941.7200000002</v>
+        <v>2326921.7200000002</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17413,7 +17417,7 @@
       <c r="E40" s="100"/>
       <c r="F40" s="183">
         <f t="shared" si="0"/>
-        <v>2342049.7200000002</v>
+        <v>2342029.7200000002</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17430,7 +17434,7 @@
       <c r="E41" s="100"/>
       <c r="F41" s="183">
         <f t="shared" si="0"/>
-        <v>2452296.6800000002</v>
+        <v>2452276.6800000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -17447,7 +17451,7 @@
       <c r="E42" s="100"/>
       <c r="F42" s="183">
         <f t="shared" si="0"/>
-        <v>2526169.2800000003</v>
+        <v>2526149.2800000003</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17464,7 +17468,7 @@
       <c r="E43" s="100"/>
       <c r="F43" s="183">
         <f t="shared" si="0"/>
-        <v>2544370.8800000004</v>
+        <v>2544350.8800000004</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17475,13 +17479,13 @@
         <v>157</v>
       </c>
       <c r="C44" s="149">
-        <v>90248.6</v>
+        <v>80248.600000000006</v>
       </c>
       <c r="D44" s="192"/>
       <c r="E44" s="100"/>
       <c r="F44" s="183">
         <f t="shared" si="0"/>
-        <v>2634619.4800000004</v>
+        <v>2624599.4800000004</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17498,7 +17502,7 @@
       <c r="E45" s="100"/>
       <c r="F45" s="183">
         <f t="shared" si="0"/>
-        <v>2738587.8400000003</v>
+        <v>2728567.8400000003</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17515,7 +17519,7 @@
       <c r="E46" s="100"/>
       <c r="F46" s="183">
         <f t="shared" si="0"/>
-        <v>2799162.4400000004</v>
+        <v>2789142.4400000004</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17532,7 +17536,7 @@
       <c r="E47" s="100"/>
       <c r="F47" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17543,7 +17547,7 @@
       <c r="E48" s="100"/>
       <c r="F48" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17554,7 +17558,7 @@
       <c r="E49" s="100"/>
       <c r="F49" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17565,7 +17569,7 @@
       <c r="E50" s="100"/>
       <c r="F50" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17576,7 +17580,7 @@
       <c r="E51" s="100"/>
       <c r="F51" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17587,7 +17591,7 @@
       <c r="E52" s="100"/>
       <c r="F52" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17598,7 +17602,7 @@
       <c r="E53" s="100"/>
       <c r="F53" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17609,7 +17613,7 @@
       <c r="E54" s="100"/>
       <c r="F54" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17620,7 +17624,7 @@
       <c r="E55" s="100"/>
       <c r="F55" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17631,7 +17635,7 @@
       <c r="E56" s="100"/>
       <c r="F56" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17642,7 +17646,7 @@
       <c r="E57" s="100"/>
       <c r="F57" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17653,7 +17657,7 @@
       <c r="E58" s="100"/>
       <c r="F58" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17664,7 +17668,7 @@
       <c r="E59" s="100"/>
       <c r="F59" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17675,7 +17679,7 @@
       <c r="E60" s="100"/>
       <c r="F60" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17686,7 +17690,7 @@
       <c r="E61" s="100"/>
       <c r="F61" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17697,7 +17701,7 @@
       <c r="E62" s="36"/>
       <c r="F62" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17708,7 +17712,7 @@
       <c r="E63" s="36"/>
       <c r="F63" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17719,7 +17723,7 @@
       <c r="E64" s="36"/>
       <c r="F64" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17730,7 +17734,7 @@
       <c r="E65" s="36"/>
       <c r="F65" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17741,7 +17745,7 @@
       <c r="E66" s="36"/>
       <c r="F66" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17752,7 +17756,7 @@
       <c r="E67" s="36"/>
       <c r="F67" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17763,7 +17767,7 @@
       <c r="E68" s="100"/>
       <c r="F68" s="183">
         <f t="shared" si="0"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17774,7 +17778,7 @@
       <c r="E69" s="100"/>
       <c r="F69" s="183">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17785,7 +17789,7 @@
       <c r="E70" s="100"/>
       <c r="F70" s="183">
         <f t="shared" si="1"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17796,7 +17800,7 @@
       <c r="E71" s="100"/>
       <c r="F71" s="183">
         <f t="shared" si="1"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17807,7 +17811,7 @@
       <c r="E72" s="100"/>
       <c r="F72" s="183">
         <f t="shared" si="1"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17818,7 +17822,7 @@
       <c r="E73" s="100"/>
       <c r="F73" s="183">
         <f t="shared" si="1"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17829,7 +17833,7 @@
       <c r="E74" s="100"/>
       <c r="F74" s="183">
         <f t="shared" si="1"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17840,7 +17844,7 @@
       <c r="E75" s="100"/>
       <c r="F75" s="183">
         <f t="shared" si="1"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17851,7 +17855,7 @@
       <c r="E76" s="100"/>
       <c r="F76" s="183">
         <f t="shared" si="1"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -17862,7 +17866,7 @@
       <c r="E77" s="100"/>
       <c r="F77" s="183">
         <f t="shared" si="1"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17875,7 +17879,7 @@
       <c r="E78" s="36"/>
       <c r="F78" s="183">
         <f t="shared" si="1"/>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -17883,7 +17887,7 @@
       <c r="B79" s="202"/>
       <c r="C79" s="203">
         <f>SUM(C3:C78)</f>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
       <c r="D79" s="175"/>
       <c r="E79" s="204">
@@ -17892,7 +17896,7 @@
       </c>
       <c r="F79" s="205">
         <f>F78</f>
-        <v>2879446.0400000005</v>
+        <v>2869426.0400000005</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -18046,10 +18050,10 @@
   <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18074,23 +18078,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="321"/>
-      <c r="C1" s="323" t="s">
+      <c r="B1" s="328"/>
+      <c r="C1" s="330" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
+      <c r="I1" s="331"/>
+      <c r="J1" s="331"/>
+      <c r="K1" s="331"/>
+      <c r="L1" s="331"/>
+      <c r="M1" s="331"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="322"/>
+      <c r="B2" s="329"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -18103,21 +18107,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="325" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="326"/>
+      <c r="B3" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="333"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="327" t="s">
+      <c r="H3" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="327"/>
+      <c r="I3" s="334"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="360" t="s">
+      <c r="R3" s="367" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18132,14 +18136,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="332" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="333"/>
-      <c r="H4" s="334" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="335"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -18149,11 +18153,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="348" t="s">
+      <c r="P4" s="355" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="349"/>
-      <c r="R4" s="361"/>
+      <c r="Q4" s="356"/>
+      <c r="R4" s="368"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -19958,7 +19962,7 @@
       <c r="J43" s="86">
         <v>45033</v>
       </c>
-      <c r="K43" s="308" t="s">
+      <c r="K43" s="315" t="s">
         <v>230</v>
       </c>
       <c r="L43" s="281">
@@ -20031,26 +20035,26 @@
       <c r="G45" s="29"/>
       <c r="H45" s="30"/>
       <c r="I45" s="96"/>
-      <c r="J45" s="86">
+      <c r="J45" s="313">
         <v>45050</v>
       </c>
-      <c r="K45" s="306" t="s">
+      <c r="K45" s="312" t="s">
         <v>228</v>
       </c>
-      <c r="L45" s="281">
-        <v>1884.05</v>
-      </c>
-      <c r="M45" s="328">
+      <c r="L45" s="314">
+        <v>2123.98</v>
+      </c>
+      <c r="M45" s="335">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="339">
+      <c r="N45" s="346">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="0"/>
-        <v>2569303.0499999998</v>
+        <v>2569542.98</v>
       </c>
       <c r="Q45" s="99">
         <f>SUM(Q5:Q39)</f>
@@ -20074,14 +20078,14 @@
       <c r="J46" s="86">
         <v>45037</v>
       </c>
-      <c r="K46" s="307" t="s">
+      <c r="K46" s="306" t="s">
         <v>229</v>
       </c>
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="329"/>
-      <c r="N46" s="340"/>
+      <c r="M46" s="336"/>
+      <c r="N46" s="347"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -20155,7 +20159,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>120077.64</v>
+        <v>120317.56999999999</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -20173,32 +20177,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="341" t="s">
+      <c r="H51" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="342"/>
+      <c r="I51" s="349"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="343">
+      <c r="K51" s="350">
         <f>I49+L49</f>
-        <v>124004.14</v>
-      </c>
-      <c r="L51" s="344"/>
-      <c r="M51" s="345">
+        <v>124244.06999999999</v>
+      </c>
+      <c r="L51" s="351"/>
+      <c r="M51" s="352">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="346"/>
+      <c r="N51" s="353"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="338" t="s">
+      <c r="D52" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="338"/>
+      <c r="E52" s="345"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>2480479.86</v>
+        <v>2480239.9300000002</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -20206,22 +20210,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="309" t="s">
+      <c r="D53" s="316" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="309"/>
+      <c r="E53" s="316"/>
       <c r="F53" s="131">
-        <v>-2383939.5299999998</v>
-      </c>
-      <c r="I53" s="310" t="s">
+        <v>-2463938.5299999998</v>
+      </c>
+      <c r="I53" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="311"/>
-      <c r="K53" s="350">
+      <c r="J53" s="318"/>
+      <c r="K53" s="357">
         <f>F55+F56+F57</f>
-        <v>519348.03000000009</v>
-      </c>
-      <c r="L53" s="351"/>
+        <v>439109.10000000038</v>
+      </c>
+      <c r="L53" s="358"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -20245,18 +20249,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>96540.330000000075</v>
+        <v>16301.400000000373</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="352">
+      <c r="K55" s="359">
         <f>-C4</f>
         <v>-341192.34</v>
       </c>
-      <c r="L55" s="353"/>
+      <c r="L55" s="360"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -20273,22 +20277,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="316" t="s">
+      <c r="D57" s="323" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="317"/>
+      <c r="E57" s="324"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="357" t="s">
+      <c r="I57" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="358"/>
-      <c r="K57" s="359">
+      <c r="J57" s="365"/>
+      <c r="K57" s="366">
         <f>K53+K55</f>
-        <v>178155.69000000006</v>
-      </c>
-      <c r="L57" s="359"/>
+        <v>97916.760000000359</v>
+      </c>
+      <c r="L57" s="366"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -20449,8 +20453,8 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20951,13 +20955,13 @@
         <v>198</v>
       </c>
       <c r="C29" s="149">
-        <v>105806.2</v>
+        <v>185805.2</v>
       </c>
       <c r="D29" s="181"/>
       <c r="E29" s="149"/>
       <c r="F29" s="183">
         <f t="shared" si="0"/>
-        <v>1368015.03</v>
+        <v>1448014.03</v>
       </c>
       <c r="J29" s="149">
         <v>0</v>
@@ -20977,7 +20981,7 @@
       <c r="E30" s="149"/>
       <c r="F30" s="183">
         <f t="shared" si="0"/>
-        <v>1435732.6300000001</v>
+        <v>1515731.6300000001</v>
       </c>
       <c r="J30" s="149">
         <v>0</v>
@@ -20997,7 +21001,7 @@
       <c r="E31" s="149"/>
       <c r="F31" s="183">
         <f t="shared" si="0"/>
-        <v>1544041.11</v>
+        <v>1624040.11</v>
       </c>
       <c r="J31" s="149">
         <v>0</v>
@@ -21017,7 +21021,7 @@
       <c r="E32" s="149"/>
       <c r="F32" s="183">
         <f t="shared" si="0"/>
-        <v>1555900.01</v>
+        <v>1635899.01</v>
       </c>
       <c r="G32" s="184"/>
       <c r="J32" s="149">
@@ -21038,7 +21042,7 @@
       <c r="E33" s="149"/>
       <c r="F33" s="183">
         <f t="shared" si="0"/>
-        <v>1653799.57</v>
+        <v>1733798.57</v>
       </c>
       <c r="J33" s="149">
         <v>0</v>
@@ -21058,7 +21062,7 @@
       <c r="E34" s="149"/>
       <c r="F34" s="183">
         <f t="shared" si="0"/>
-        <v>1759173.1300000001</v>
+        <v>1839172.1300000001</v>
       </c>
       <c r="J34" s="149">
         <v>0</v>
@@ -21078,7 +21082,7 @@
       <c r="E35" s="149"/>
       <c r="F35" s="183">
         <f t="shared" si="0"/>
-        <v>1763705.7300000002</v>
+        <v>1843704.7300000002</v>
       </c>
       <c r="J35" s="149">
         <v>0</v>
@@ -21098,7 +21102,7 @@
       <c r="E36" s="149"/>
       <c r="F36" s="183">
         <f t="shared" si="0"/>
-        <v>1837150.2500000002</v>
+        <v>1917149.2500000002</v>
       </c>
       <c r="J36" s="133">
         <v>0</v>
@@ -21118,7 +21122,7 @@
       <c r="E37" s="149"/>
       <c r="F37" s="183">
         <f t="shared" si="0"/>
-        <v>1909130.9900000002</v>
+        <v>1989129.9900000002</v>
       </c>
       <c r="J37" s="187">
         <f>SUM(J29:J36)</f>
@@ -21139,7 +21143,7 @@
       <c r="E38" s="149"/>
       <c r="F38" s="183">
         <f t="shared" si="0"/>
-        <v>1953421.1900000002</v>
+        <v>2033420.1900000002</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21156,7 +21160,7 @@
       <c r="E39" s="149"/>
       <c r="F39" s="183">
         <f t="shared" si="0"/>
-        <v>2080298.0100000002</v>
+        <v>2160297.0100000002</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21173,7 +21177,7 @@
       <c r="E40" s="100"/>
       <c r="F40" s="183">
         <f t="shared" si="0"/>
-        <v>2083752.2100000002</v>
+        <v>2163751.2100000004</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21190,7 +21194,7 @@
       <c r="E41" s="100"/>
       <c r="F41" s="183">
         <f t="shared" si="0"/>
-        <v>2105164.5100000002</v>
+        <v>2185163.5100000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21207,7 +21211,7 @@
       <c r="E42" s="100"/>
       <c r="F42" s="183">
         <f t="shared" si="0"/>
-        <v>2111674.0100000002</v>
+        <v>2191673.0100000002</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21224,7 +21228,7 @@
       <c r="E43" s="100"/>
       <c r="F43" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2201216.9300000002</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21241,7 +21245,7 @@
       <c r="E44" s="100"/>
       <c r="F44" s="183">
         <f t="shared" si="0"/>
-        <v>2212540.0300000003</v>
+        <v>2292539.0300000003</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21258,7 +21262,7 @@
       <c r="E45" s="100"/>
       <c r="F45" s="183">
         <f t="shared" si="0"/>
-        <v>2248486.33</v>
+        <v>2328485.33</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21275,7 +21279,7 @@
       <c r="E46" s="100"/>
       <c r="F46" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21286,7 +21290,7 @@
       <c r="E47" s="100"/>
       <c r="F47" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21297,7 +21301,7 @@
       <c r="E48" s="100"/>
       <c r="F48" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21308,7 +21312,7 @@
       <c r="E49" s="100"/>
       <c r="F49" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21319,7 +21323,7 @@
       <c r="E50" s="100"/>
       <c r="F50" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21330,7 +21334,7 @@
       <c r="E51" s="100"/>
       <c r="F51" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21341,7 +21345,7 @@
       <c r="E52" s="100"/>
       <c r="F52" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21352,7 +21356,7 @@
       <c r="E53" s="100"/>
       <c r="F53" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21363,7 +21367,7 @@
       <c r="E54" s="100"/>
       <c r="F54" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21374,7 +21378,7 @@
       <c r="E55" s="100"/>
       <c r="F55" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21385,7 +21389,7 @@
       <c r="E56" s="100"/>
       <c r="F56" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21396,7 +21400,7 @@
       <c r="E57" s="100"/>
       <c r="F57" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21407,7 +21411,7 @@
       <c r="E58" s="100"/>
       <c r="F58" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21418,7 +21422,7 @@
       <c r="E59" s="100"/>
       <c r="F59" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21429,7 +21433,7 @@
       <c r="E60" s="100"/>
       <c r="F60" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21440,7 +21444,7 @@
       <c r="E61" s="100"/>
       <c r="F61" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21451,7 +21455,7 @@
       <c r="E62" s="36"/>
       <c r="F62" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21462,7 +21466,7 @@
       <c r="E63" s="36"/>
       <c r="F63" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21473,7 +21477,7 @@
       <c r="E64" s="36"/>
       <c r="F64" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21484,7 +21488,7 @@
       <c r="E65" s="36"/>
       <c r="F65" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21495,7 +21499,7 @@
       <c r="E66" s="36"/>
       <c r="F66" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21506,7 +21510,7 @@
       <c r="E67" s="36"/>
       <c r="F67" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21517,7 +21521,7 @@
       <c r="E68" s="100"/>
       <c r="F68" s="183">
         <f t="shared" si="0"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21528,7 +21532,7 @@
       <c r="E69" s="100"/>
       <c r="F69" s="183">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21539,7 +21543,7 @@
       <c r="E70" s="100"/>
       <c r="F70" s="183">
         <f t="shared" si="1"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21550,7 +21554,7 @@
       <c r="E71" s="100"/>
       <c r="F71" s="183">
         <f t="shared" si="1"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21561,7 +21565,7 @@
       <c r="E72" s="100"/>
       <c r="F72" s="183">
         <f t="shared" si="1"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21572,7 +21576,7 @@
       <c r="E73" s="100"/>
       <c r="F73" s="183">
         <f t="shared" si="1"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21583,7 +21587,7 @@
       <c r="E74" s="100"/>
       <c r="F74" s="183">
         <f t="shared" si="1"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21594,7 +21598,7 @@
       <c r="E75" s="100"/>
       <c r="F75" s="183">
         <f t="shared" si="1"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21605,7 +21609,7 @@
       <c r="E76" s="100"/>
       <c r="F76" s="183">
         <f t="shared" si="1"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21616,7 +21620,7 @@
       <c r="E77" s="100"/>
       <c r="F77" s="183">
         <f t="shared" si="1"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21629,7 +21633,7 @@
       <c r="E78" s="36"/>
       <c r="F78" s="183">
         <f t="shared" si="1"/>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -21637,7 +21641,7 @@
       <c r="B79" s="202"/>
       <c r="C79" s="203">
         <f>SUM(C3:C78)</f>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
       <c r="D79" s="175"/>
       <c r="E79" s="204">
@@ -21646,7 +21650,7 @@
       </c>
       <c r="F79" s="205">
         <f>F78</f>
-        <v>2383939.5300000003</v>
+        <v>2463938.5300000003</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -21800,7 +21804,7 @@
   <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21825,23 +21829,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="321"/>
-      <c r="C1" s="323" t="s">
+      <c r="B1" s="328"/>
+      <c r="C1" s="330" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
+      <c r="I1" s="331"/>
+      <c r="J1" s="331"/>
+      <c r="K1" s="331"/>
+      <c r="L1" s="331"/>
+      <c r="M1" s="331"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="322"/>
+      <c r="B2" s="329"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -21854,21 +21858,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="325" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="326"/>
+      <c r="B3" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="333"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="327" t="s">
+      <c r="H3" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="327"/>
+      <c r="I3" s="334"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="360" t="s">
+      <c r="R3" s="367" t="s">
         <v>2</v>
       </c>
     </row>
@@ -21880,17 +21884,17 @@
       <c r="C4" s="16">
         <v>394548.7</v>
       </c>
-      <c r="D4" s="362">
+      <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="332" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="333"/>
-      <c r="H4" s="334" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="335"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -21900,11 +21904,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="348" t="s">
+      <c r="P4" s="355" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="349"/>
-      <c r="R4" s="361"/>
+      <c r="Q4" s="356"/>
+      <c r="R4" s="368"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -23418,11 +23422,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="328">
+      <c r="M45" s="335">
         <f>SUM(M5:M39)</f>
         <v>0</v>
       </c>
-      <c r="N45" s="339">
+      <c r="N45" s="346">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -23452,8 +23456,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="329"/>
-      <c r="N46" s="340"/>
+      <c r="M46" s="336"/>
+      <c r="N46" s="347"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -23545,29 +23549,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="341" t="s">
+      <c r="H51" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="342"/>
+      <c r="I51" s="349"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="343">
+      <c r="K51" s="350">
         <f>I49+L49</f>
         <v>0</v>
       </c>
-      <c r="L51" s="344"/>
-      <c r="M51" s="345">
+      <c r="L51" s="351"/>
+      <c r="M51" s="352">
         <f>N45+M45</f>
         <v>0</v>
       </c>
-      <c r="N51" s="346"/>
+      <c r="N51" s="353"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="338" t="s">
+      <c r="D52" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="338"/>
+      <c r="E52" s="345"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>0</v>
@@ -23578,22 +23582,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="309" t="s">
+      <c r="D53" s="316" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="309"/>
+      <c r="E53" s="316"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="310" t="s">
+      <c r="I53" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="311"/>
-      <c r="K53" s="350">
+      <c r="J53" s="318"/>
+      <c r="K53" s="357">
         <f>F55+F56+F57</f>
         <v>0</v>
       </c>
-      <c r="L53" s="351"/>
+      <c r="L53" s="358"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -23624,11 +23628,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="352">
+      <c r="K55" s="359">
         <f>-C4</f>
         <v>-394548.7</v>
       </c>
-      <c r="L55" s="353"/>
+      <c r="L55" s="360"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -23645,22 +23649,22 @@
       <c r="C57" s="150">
         <v>0</v>
       </c>
-      <c r="D57" s="316" t="s">
+      <c r="D57" s="323" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="317"/>
+      <c r="E57" s="324"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="357" t="s">
+      <c r="I57" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="358"/>
-      <c r="K57" s="359">
+      <c r="J57" s="365"/>
+      <c r="K57" s="366">
         <f>K53+K55</f>
         <v>-394548.7</v>
       </c>
-      <c r="L57" s="359"/>
+      <c r="L57" s="366"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -23792,20 +23796,20 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="M45:M46"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D52:E52"/>
     <mergeCell ref="N45:N46"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  HERRADURA  MAYO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  HERRADURA  MAYO    2023.xlsx
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="267">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1136,6 +1136,9 @@
   </si>
   <si>
     <t>11158 E</t>
+  </si>
+  <si>
+    <t>NOMINA  # 18</t>
   </si>
 </sst>
 </file>
@@ -3130,69 +3133,6 @@
     <xf numFmtId="16" fontId="18" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3244,6 +3184,69 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3274,6 +3277,12 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3282,12 +3291,6 @@
     </xf>
     <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5742,23 +5745,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="333"/>
+      <c r="C1" s="335" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="336"/>
+      <c r="G1" s="336"/>
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="334"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -5768,21 +5771,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="337" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="338"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="339" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="339"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="337" t="s">
+      <c r="R3" s="316" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5797,14 +5800,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="318" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="319"/>
+      <c r="H4" s="320" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="321"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -5814,11 +5817,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="343" t="s">
+      <c r="P4" s="322" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="344"/>
-      <c r="R4" s="338"/>
+      <c r="Q4" s="323"/>
+      <c r="R4" s="317"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7623,11 +7626,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="335">
+      <c r="M49" s="340">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="346">
+      <c r="N49" s="325">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -7662,8 +7665,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="336"/>
-      <c r="N50" s="347"/>
+      <c r="M50" s="341"/>
+      <c r="N50" s="326"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -7755,29 +7758,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="348" t="s">
+      <c r="H55" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="349"/>
+      <c r="I55" s="328"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="350">
+      <c r="K55" s="329">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="351"/>
-      <c r="M55" s="352">
+      <c r="L55" s="330"/>
+      <c r="M55" s="331">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="353"/>
+      <c r="N55" s="332"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="345" t="s">
+      <c r="D56" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="345"/>
+      <c r="E56" s="324"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -7788,22 +7791,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="316" t="s">
+      <c r="D57" s="342" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="316"/>
+      <c r="E57" s="342"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="317" t="s">
+      <c r="I57" s="343" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="318"/>
-      <c r="K57" s="319">
+      <c r="J57" s="344"/>
+      <c r="K57" s="345">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="320"/>
+      <c r="L57" s="346"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -7834,11 +7837,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="321">
+      <c r="K59" s="347">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="322"/>
+      <c r="L59" s="348"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -7855,22 +7858,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="323" t="s">
+      <c r="D61" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="324"/>
+      <c r="E61" s="350"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="325" t="s">
+      <c r="I61" s="351" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="326"/>
-      <c r="K61" s="327">
+      <c r="J61" s="352"/>
+      <c r="K61" s="353">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="327"/>
+      <c r="L61" s="353"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -7995,6 +7998,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -8004,18 +8019,6 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10697,23 +10700,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="333"/>
+      <c r="C1" s="335" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="336"/>
+      <c r="G1" s="336"/>
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="334"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10723,21 +10726,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="337" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="338"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="339" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="339"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="337" t="s">
+      <c r="R3" s="316" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10752,14 +10755,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="318" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="319"/>
+      <c r="H4" s="320" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="321"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -12574,11 +12577,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="335">
+      <c r="M45" s="340">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="346">
+      <c r="N45" s="325">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -12608,8 +12611,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="336"/>
-      <c r="N46" s="347"/>
+      <c r="M46" s="341"/>
+      <c r="N46" s="326"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12701,29 +12704,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="348" t="s">
+      <c r="H51" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="349"/>
+      <c r="I51" s="328"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="350">
+      <c r="K51" s="329">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="351"/>
-      <c r="M51" s="352">
+      <c r="L51" s="330"/>
+      <c r="M51" s="331">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="353"/>
+      <c r="N51" s="332"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="345" t="s">
+      <c r="D52" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="345"/>
+      <c r="E52" s="324"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -12734,22 +12737,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="316" t="s">
+      <c r="D53" s="342" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="316"/>
+      <c r="E53" s="342"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="317" t="s">
+      <c r="I53" s="343" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="318"/>
-      <c r="K53" s="319">
+      <c r="J53" s="344"/>
+      <c r="K53" s="345">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="320"/>
+      <c r="L53" s="346"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -12780,11 +12783,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="321">
+      <c r="K55" s="347">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="322"/>
+      <c r="L55" s="348"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -12801,22 +12804,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="323" t="s">
+      <c r="D57" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="324"/>
+      <c r="E57" s="350"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="325" t="s">
+      <c r="I57" s="351" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="326"/>
-      <c r="K57" s="327">
+      <c r="J57" s="352"/>
+      <c r="K57" s="353">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="327"/>
+      <c r="L57" s="353"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -12941,6 +12944,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12950,18 +12965,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14420,23 +14423,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="333"/>
+      <c r="C1" s="335" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="336"/>
+      <c r="G1" s="336"/>
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="334"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -14446,21 +14449,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="337" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="338"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="339" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="339"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="337" t="s">
+      <c r="R3" s="316" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14475,14 +14478,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="318" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="319"/>
+      <c r="H4" s="320" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="321"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -16289,11 +16292,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="335">
+      <c r="M45" s="340">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="346">
+      <c r="N45" s="325">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -16323,8 +16326,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="336"/>
-      <c r="N46" s="347"/>
+      <c r="M46" s="341"/>
+      <c r="N46" s="326"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -16416,29 +16419,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="348" t="s">
+      <c r="H51" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="349"/>
+      <c r="I51" s="328"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="350">
+      <c r="K51" s="329">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="351"/>
-      <c r="M51" s="352">
+      <c r="L51" s="330"/>
+      <c r="M51" s="331">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="353"/>
+      <c r="N51" s="332"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="345" t="s">
+      <c r="D52" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="345"/>
+      <c r="E52" s="324"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -16449,17 +16452,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="316" t="s">
+      <c r="D53" s="342" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="316"/>
+      <c r="E53" s="342"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="317" t="s">
+      <c r="I53" s="343" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="318"/>
+      <c r="J53" s="344"/>
       <c r="K53" s="357">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
@@ -16516,10 +16519,10 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="323" t="s">
+      <c r="D57" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="324"/>
+      <c r="E57" s="350"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
@@ -16656,18 +16659,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16677,6 +16668,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18078,23 +18081,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="333"/>
+      <c r="C1" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="336"/>
+      <c r="G1" s="336"/>
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="334"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -18107,21 +18110,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="337" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="338"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="339" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="339"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="367" t="s">
+      <c r="R3" s="364" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18136,14 +18139,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="318" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="319"/>
+      <c r="H4" s="320" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="321"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -18157,7 +18160,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="356"/>
-      <c r="R4" s="368"/>
+      <c r="R4" s="365"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -20044,11 +20047,11 @@
       <c r="L45" s="314">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="335">
+      <c r="M45" s="340">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="346">
+      <c r="N45" s="325">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -20084,8 +20087,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="336"/>
-      <c r="N46" s="347"/>
+      <c r="M46" s="341"/>
+      <c r="N46" s="326"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -20177,29 +20180,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="348" t="s">
+      <c r="H51" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="349"/>
+      <c r="I51" s="328"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="350">
+      <c r="K51" s="329">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="351"/>
-      <c r="M51" s="352">
+      <c r="L51" s="330"/>
+      <c r="M51" s="331">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="353"/>
+      <c r="N51" s="332"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="345" t="s">
+      <c r="D52" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="345"/>
+      <c r="E52" s="324"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -20210,17 +20213,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="316" t="s">
+      <c r="D53" s="342" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="316"/>
+      <c r="E53" s="342"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="317" t="s">
+      <c r="I53" s="343" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="318"/>
+      <c r="J53" s="344"/>
       <c r="K53" s="357">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
@@ -20277,22 +20280,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="323" t="s">
+      <c r="D57" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="324"/>
+      <c r="E57" s="350"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="364" t="s">
+      <c r="I57" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="365"/>
-      <c r="K57" s="366">
+      <c r="J57" s="367"/>
+      <c r="K57" s="368">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="366"/>
+      <c r="L57" s="368"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -20417,6 +20420,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20426,18 +20441,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21804,7 +21807,7 @@
   <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21829,23 +21832,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="333"/>
+      <c r="C1" s="335" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="336"/>
+      <c r="G1" s="336"/>
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="334"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -21858,21 +21861,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="337" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="338"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="339" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="339"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="367" t="s">
+      <c r="R3" s="364" t="s">
         <v>2</v>
       </c>
     </row>
@@ -21887,14 +21890,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="318" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="319"/>
+      <c r="H4" s="320" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="321"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -21908,7 +21911,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="356"/>
-      <c r="R4" s="368"/>
+      <c r="R4" s="365"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -21917,36 +21920,45 @@
       <c r="B5" s="24">
         <v>45051</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="25">
+        <v>480</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>100</v>
+      </c>
       <c r="E5" s="27">
         <v>45051</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="28">
+        <v>193610</v>
+      </c>
       <c r="G5" s="29"/>
       <c r="H5" s="30">
         <v>45051</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="31">
+        <v>39</v>
+      </c>
       <c r="J5" s="251"/>
       <c r="K5" s="257"/>
       <c r="L5" s="13"/>
       <c r="M5" s="33">
-        <v>0</v>
+        <f>117500+83242</f>
+        <v>200742</v>
       </c>
       <c r="N5" s="34">
-        <v>0</v>
+        <v>5814</v>
       </c>
       <c r="O5" s="35"/>
       <c r="P5" s="235">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>207075</v>
       </c>
       <c r="Q5" s="236">
         <v>0</v>
       </c>
       <c r="R5" s="237">
-        <v>4937</v>
+        <v>13465</v>
       </c>
       <c r="S5" s="37"/>
     </row>
@@ -21955,36 +21967,49 @@
       <c r="B6" s="24">
         <v>45052</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
       <c r="D6" s="38"/>
       <c r="E6" s="27">
         <v>45052</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28">
+        <v>93499</v>
+      </c>
       <c r="G6" s="29"/>
       <c r="H6" s="30">
         <v>45052</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="259"/>
+      <c r="I6" s="31">
+        <v>375</v>
+      </c>
+      <c r="J6" s="258">
+        <v>45052</v>
+      </c>
+      <c r="K6" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="L6" s="259">
+        <v>10902</v>
+      </c>
       <c r="M6" s="33">
-        <v>0</v>
+        <v>80492</v>
       </c>
       <c r="N6" s="34">
-        <v>0</v>
+        <v>1741</v>
       </c>
       <c r="O6" s="35"/>
       <c r="P6" s="235">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="236">
-        <v>0</v>
-      </c>
-      <c r="R6" s="237">
-        <v>1224</v>
+        <v>93510</v>
+      </c>
+      <c r="Q6" s="243">
+        <f t="shared" ref="Q5:Q41" si="0">P6-F6</f>
+        <v>11</v>
+      </c>
+      <c r="R6" s="238">
+        <v>0</v>
       </c>
       <c r="S6" s="37"/>
       <c r="T6" s="9"/>
@@ -21994,12 +22019,16 @@
       <c r="B7" s="24">
         <v>45053</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
       <c r="D7" s="42"/>
       <c r="E7" s="27">
         <v>45053</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30">
         <v>45053</v>
@@ -22019,11 +22048,12 @@
         <f>N7+M7+L7+I7+C7</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="236">
-        <v>0</v>
-      </c>
-      <c r="R7" s="237">
-        <v>20107</v>
+      <c r="Q7" s="236" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R7" s="238">
+        <v>0</v>
       </c>
       <c r="S7" s="37"/>
     </row>
@@ -22032,7 +22062,9 @@
       <c r="B8" s="24">
         <v>45054</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
       <c r="D8" s="42"/>
       <c r="E8" s="27">
         <v>45054</v>
@@ -22054,11 +22086,11 @@
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="235">
-        <f t="shared" ref="P8:P45" si="0">N8+M8+L8+I8+C8</f>
+        <f t="shared" ref="P8:P45" si="1">N8+M8+L8+I8+C8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="236">
-        <f t="shared" ref="Q8:Q44" si="1">P8-F8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R8" s="238">
@@ -22071,7 +22103,9 @@
       <c r="B9" s="24">
         <v>45055</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
       <c r="D9" s="46"/>
       <c r="E9" s="27">
         <v>45055</v>
@@ -22093,11 +22127,11 @@
       </c>
       <c r="O9" s="35"/>
       <c r="P9" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q9" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R9" s="238">
@@ -22110,7 +22144,9 @@
       <c r="B10" s="24">
         <v>45056</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
       <c r="D10" s="38"/>
       <c r="E10" s="27">
         <v>45056</v>
@@ -22136,7 +22172,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R10" s="238">
@@ -22152,7 +22188,9 @@
       <c r="B11" s="24">
         <v>45057</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
       <c r="D11" s="38"/>
       <c r="E11" s="27">
         <v>45057</v>
@@ -22178,7 +22216,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R11" s="238">
@@ -22191,7 +22229,9 @@
       <c r="B12" s="24">
         <v>45058</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
       <c r="D12" s="38"/>
       <c r="E12" s="27">
         <v>45058</v>
@@ -22213,11 +22253,11 @@
       </c>
       <c r="O12" s="35"/>
       <c r="P12" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q12" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R12" s="238">
@@ -22230,7 +22270,9 @@
       <c r="B13" s="24">
         <v>45059</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
       <c r="D13" s="42"/>
       <c r="E13" s="27">
         <v>45059</v>
@@ -22252,14 +22294,15 @@
       </c>
       <c r="O13" s="35"/>
       <c r="P13" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q13" s="236">
-        <v>0</v>
-      </c>
-      <c r="R13" s="237">
-        <v>5820</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="238">
+        <v>0</v>
       </c>
       <c r="S13" s="37"/>
     </row>
@@ -22268,7 +22311,9 @@
       <c r="B14" s="24">
         <v>45060</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
       <c r="D14" s="46"/>
       <c r="E14" s="27">
         <v>45060</v>
@@ -22290,11 +22335,11 @@
       </c>
       <c r="O14" s="35"/>
       <c r="P14" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q14" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R14" s="238">
@@ -22307,7 +22352,9 @@
       <c r="B15" s="24">
         <v>45061</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
       <c r="D15" s="46"/>
       <c r="E15" s="27">
         <v>45061</v>
@@ -22329,11 +22376,11 @@
       </c>
       <c r="O15" s="35"/>
       <c r="P15" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q15" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R15" s="238">
@@ -22346,7 +22393,9 @@
       <c r="B16" s="24">
         <v>45062</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
       <c r="D16" s="52"/>
       <c r="E16" s="27">
         <v>45062</v>
@@ -22368,11 +22417,11 @@
       </c>
       <c r="O16" s="35"/>
       <c r="P16" s="235">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="301">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="236">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R16" s="238">
@@ -22385,7 +22434,9 @@
       <c r="B17" s="24">
         <v>45063</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
       <c r="D17" s="46"/>
       <c r="E17" s="27">
         <v>45063</v>
@@ -22407,11 +22458,11 @@
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q17" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R17" s="238">
@@ -22424,7 +22475,9 @@
       <c r="B18" s="24">
         <v>45064</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
       <c r="D18" s="38"/>
       <c r="E18" s="27">
         <v>45064</v>
@@ -22446,11 +22499,11 @@
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q18" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R18" s="238">
@@ -22463,7 +22516,9 @@
       <c r="B19" s="24">
         <v>45065</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
       <c r="D19" s="38"/>
       <c r="E19" s="27">
         <v>45065</v>
@@ -22485,11 +22540,11 @@
       </c>
       <c r="O19" s="35"/>
       <c r="P19" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q19" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R19" s="238">
@@ -22502,7 +22557,9 @@
       <c r="B20" s="24">
         <v>45066</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
       <c r="D20" s="38"/>
       <c r="E20" s="27">
         <v>45066</v>
@@ -22524,11 +22581,11 @@
       </c>
       <c r="O20" s="35"/>
       <c r="P20" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q20" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R20" s="238">
@@ -22541,7 +22598,9 @@
       <c r="B21" s="24">
         <v>45067</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
       <c r="D21" s="38"/>
       <c r="E21" s="27">
         <v>45067</v>
@@ -22563,11 +22622,11 @@
       </c>
       <c r="O21" s="35"/>
       <c r="P21" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q21" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R21" s="238">
@@ -22580,7 +22639,9 @@
       <c r="B22" s="24">
         <v>45068</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
       <c r="D22" s="38"/>
       <c r="E22" s="27">
         <v>45068</v>
@@ -22602,11 +22663,11 @@
       </c>
       <c r="O22" s="35"/>
       <c r="P22" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q22" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R22" s="238">
@@ -22619,7 +22680,9 @@
       <c r="B23" s="24">
         <v>45069</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
       <c r="D23" s="46"/>
       <c r="E23" s="27">
         <v>45069</v>
@@ -22641,11 +22704,11 @@
       </c>
       <c r="O23" s="35"/>
       <c r="P23" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q23" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R23" s="238">
@@ -22658,7 +22721,9 @@
       <c r="B24" s="24">
         <v>45070</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
       <c r="D24" s="42"/>
       <c r="E24" s="27">
         <v>45070</v>
@@ -22680,11 +22745,11 @@
       </c>
       <c r="O24" s="35"/>
       <c r="P24" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q24" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R24" s="238">
@@ -22697,7 +22762,9 @@
       <c r="B25" s="24">
         <v>45071</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
       <c r="D25" s="38"/>
       <c r="E25" s="27">
         <v>45071</v>
@@ -22719,11 +22786,11 @@
       </c>
       <c r="O25" s="35"/>
       <c r="P25" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q25" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R25" s="238">
@@ -22736,7 +22803,9 @@
       <c r="B26" s="24">
         <v>45072</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="25">
+        <v>0</v>
+      </c>
       <c r="D26" s="38"/>
       <c r="E26" s="27">
         <v>45072</v>
@@ -22758,11 +22827,11 @@
       </c>
       <c r="O26" s="35"/>
       <c r="P26" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q26" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R26" s="238">
@@ -22775,7 +22844,9 @@
       <c r="B27" s="24">
         <v>45073</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
       <c r="D27" s="42"/>
       <c r="E27" s="27">
         <v>45073</v>
@@ -22797,11 +22868,11 @@
       </c>
       <c r="O27" s="35"/>
       <c r="P27" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q27" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R27" s="238">
@@ -22814,7 +22885,9 @@
       <c r="B28" s="24">
         <v>45074</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="25">
+        <v>0</v>
+      </c>
       <c r="D28" s="42"/>
       <c r="E28" s="27">
         <v>45074</v>
@@ -22836,11 +22909,11 @@
       </c>
       <c r="O28" s="35"/>
       <c r="P28" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q28" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R28" s="238">
@@ -22853,7 +22926,9 @@
       <c r="B29" s="24">
         <v>45075</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="25">
+        <v>0</v>
+      </c>
       <c r="D29" s="72"/>
       <c r="E29" s="27">
         <v>45075</v>
@@ -22875,11 +22950,11 @@
       </c>
       <c r="O29" s="35"/>
       <c r="P29" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q29" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R29" s="238">
@@ -22893,7 +22968,9 @@
       <c r="B30" s="24">
         <v>45076</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="25">
+        <v>0</v>
+      </c>
       <c r="D30" s="72"/>
       <c r="E30" s="27">
         <v>45076</v>
@@ -22915,11 +22992,11 @@
       </c>
       <c r="O30" s="35"/>
       <c r="P30" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q30" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R30" s="238">
@@ -22932,7 +23009,9 @@
       <c r="B31" s="24">
         <v>45077</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="25">
+        <v>0</v>
+      </c>
       <c r="D31" s="77"/>
       <c r="E31" s="27">
         <v>45077</v>
@@ -22954,11 +23033,11 @@
       </c>
       <c r="O31" s="35"/>
       <c r="P31" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q31" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R31" s="238">
@@ -22971,7 +23050,9 @@
       <c r="B32" s="24">
         <v>45078</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="25">
+        <v>0</v>
+      </c>
       <c r="D32" s="82"/>
       <c r="E32" s="27">
         <v>45078</v>
@@ -22993,11 +23074,11 @@
       </c>
       <c r="O32" s="35"/>
       <c r="P32" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q32" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R32" s="238">
@@ -23010,7 +23091,9 @@
       <c r="B33" s="24">
         <v>45079</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="25">
+        <v>0</v>
+      </c>
       <c r="D33" s="80"/>
       <c r="E33" s="27">
         <v>45079</v>
@@ -23032,11 +23115,11 @@
       </c>
       <c r="O33" s="35"/>
       <c r="P33" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q33" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R33" s="238">
@@ -23049,7 +23132,9 @@
       <c r="B34" s="24">
         <v>45080</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="25">
+        <v>0</v>
+      </c>
       <c r="D34" s="82"/>
       <c r="E34" s="27">
         <v>45080</v>
@@ -23071,11 +23156,11 @@
       </c>
       <c r="O34" s="35"/>
       <c r="P34" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q34" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R34" s="238">
@@ -23104,11 +23189,11 @@
       </c>
       <c r="O35" s="35"/>
       <c r="P35" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q35" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R35" s="238">
@@ -23137,11 +23222,11 @@
       </c>
       <c r="O36" s="35"/>
       <c r="P36" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q36" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R36" s="238">
@@ -23170,11 +23255,11 @@
       </c>
       <c r="O37" s="35"/>
       <c r="P37" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q37" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R37" s="238">
@@ -23203,11 +23288,11 @@
       </c>
       <c r="O38" s="35"/>
       <c r="P38" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q38" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R38" s="238">
@@ -23236,11 +23321,11 @@
       </c>
       <c r="O39" s="35"/>
       <c r="P39" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q39" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R39" s="238">
@@ -23269,11 +23354,11 @@
       </c>
       <c r="O40" s="35"/>
       <c r="P40" s="235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q40" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R40" s="238">
@@ -23305,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R41" s="238">
@@ -23337,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="236">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q8:Q44" si="2">P42-F42</f>
         <v>0</v>
       </c>
       <c r="R42" s="238">
@@ -23366,11 +23451,11 @@
       </c>
       <c r="O43" s="35"/>
       <c r="P43" s="240">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q43" s="241">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R43" s="242">
@@ -23397,11 +23482,11 @@
       <c r="N44" s="93"/>
       <c r="O44" s="35"/>
       <c r="P44" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q44" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R44" s="13">
@@ -23422,25 +23507,25 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="335">
+      <c r="M45" s="340">
         <f>SUM(M5:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="346">
+        <v>281234</v>
+      </c>
+      <c r="N45" s="325">
         <f>SUM(N5:N39)</f>
-        <v>0</v>
+        <v>7555</v>
       </c>
       <c r="P45" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="99">
+        <f t="shared" si="1"/>
+        <v>288789</v>
+      </c>
+      <c r="Q45" s="99" t="e">
         <f>SUM(Q5:Q39)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R45" s="99">
         <f>SUM(R5:R39)</f>
-        <v>32088</v>
+        <v>13465</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23456,8 +23541,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="336"/>
-      <c r="N46" s="347"/>
+      <c r="M46" s="341"/>
+      <c r="N46" s="326"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -23507,7 +23592,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -23515,7 +23600,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>0</v>
+        <v>287109</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -23523,7 +23608,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="J49" s="290"/>
       <c r="K49" s="291" t="s">
@@ -23531,7 +23616,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>0</v>
+        <v>10902</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -23549,32 +23634,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="348" t="s">
+      <c r="H51" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="349"/>
+      <c r="I51" s="328"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="350">
+      <c r="K51" s="329">
         <f>I49+L49</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="351"/>
-      <c r="M51" s="352">
+        <v>11316</v>
+      </c>
+      <c r="L51" s="330"/>
+      <c r="M51" s="331">
         <f>N45+M45</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="353"/>
+        <v>288789</v>
+      </c>
+      <c r="N51" s="332"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="345" t="s">
+      <c r="D52" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="345"/>
+      <c r="E52" s="324"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>0</v>
+        <v>275313</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -23582,20 +23667,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="316" t="s">
+      <c r="D53" s="342" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="316"/>
+      <c r="E53" s="342"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="317" t="s">
+      <c r="I53" s="343" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="318"/>
+      <c r="J53" s="344"/>
       <c r="K53" s="357">
         <f>F55+F56+F57</f>
-        <v>0</v>
+        <v>275313</v>
       </c>
       <c r="L53" s="358"/>
       <c r="P53" s="36"/>
@@ -23621,7 +23706,7 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>0</v>
+        <v>275313</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
@@ -23649,22 +23734,22 @@
       <c r="C57" s="150">
         <v>0</v>
       </c>
-      <c r="D57" s="323" t="s">
+      <c r="D57" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="324"/>
+      <c r="E57" s="350"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="364" t="s">
+      <c r="I57" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="365"/>
-      <c r="K57" s="366">
+      <c r="J57" s="367"/>
+      <c r="K57" s="368">
         <f>K53+K55</f>
-        <v>-394548.7</v>
-      </c>
-      <c r="L57" s="366"/>
+        <v>-119235.70000000001</v>
+      </c>
+      <c r="L57" s="368"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -23789,18 +23874,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23810,6 +23883,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  HERRADURA  MAYO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  HERRADURA  MAYO    2023.xlsx
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="271">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1140,12 +1140,25 @@
   <si>
     <t>NOMINA  # 18</t>
   </si>
+  <si>
+    <t xml:space="preserve">COMPRAS CENTRAL </t>
+  </si>
+  <si>
+    <t>NOMINA # 19</t>
+  </si>
+  <si>
+    <t>LONGANIZA-ENCHILADA</t>
+  </si>
+  <si>
+    <t>s/comision</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="7">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
@@ -1153,7 +1166,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1572,6 +1585,14 @@
       <b/>
       <sz val="13"/>
       <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2518,7 +2539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="369">
+  <cellXfs count="372">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3133,6 +3154,69 @@
     <xf numFmtId="16" fontId="18" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3184,69 +3268,6 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3277,12 +3298,6 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3290,6 +3305,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="12" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3302,11 +3332,11 @@
   <colors>
     <mruColors>
       <color rgb="FF66FFFF"/>
+      <color rgb="FFFFCCCC"/>
       <color rgb="FFCCFF33"/>
       <color rgb="FFFF9900"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FFFFCCCC"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -5745,23 +5775,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="333"/>
-      <c r="C1" s="335" t="s">
+      <c r="B1" s="328"/>
+      <c r="C1" s="330" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
+      <c r="I1" s="331"/>
+      <c r="J1" s="331"/>
+      <c r="K1" s="331"/>
+      <c r="L1" s="331"/>
+      <c r="M1" s="331"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="334"/>
+      <c r="B2" s="329"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -5771,21 +5801,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="338"/>
+      <c r="B3" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="333"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="339" t="s">
+      <c r="H3" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="339"/>
+      <c r="I3" s="334"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="316" t="s">
+      <c r="R3" s="337" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5800,14 +5830,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="318" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="319"/>
-      <c r="H4" s="320" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="321"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -5817,11 +5847,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="322" t="s">
+      <c r="P4" s="343" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="323"/>
-      <c r="R4" s="317"/>
+      <c r="Q4" s="344"/>
+      <c r="R4" s="338"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7626,11 +7656,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="340">
+      <c r="M49" s="335">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="325">
+      <c r="N49" s="346">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -7665,8 +7695,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="341"/>
-      <c r="N50" s="326"/>
+      <c r="M50" s="336"/>
+      <c r="N50" s="347"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -7758,29 +7788,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="327" t="s">
+      <c r="H55" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="328"/>
+      <c r="I55" s="349"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="329">
+      <c r="K55" s="350">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="330"/>
-      <c r="M55" s="331">
+      <c r="L55" s="351"/>
+      <c r="M55" s="352">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="332"/>
+      <c r="N55" s="353"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="324" t="s">
+      <c r="D56" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="324"/>
+      <c r="E56" s="345"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -7791,22 +7821,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="342" t="s">
+      <c r="D57" s="316" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="342"/>
+      <c r="E57" s="316"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="343" t="s">
+      <c r="I57" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="344"/>
-      <c r="K57" s="345">
+      <c r="J57" s="318"/>
+      <c r="K57" s="319">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="346"/>
+      <c r="L57" s="320"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -7837,11 +7867,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="347">
+      <c r="K59" s="321">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="348"/>
+      <c r="L59" s="322"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -7858,22 +7888,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="349" t="s">
+      <c r="D61" s="323" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="350"/>
+      <c r="E61" s="324"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="351" t="s">
+      <c r="I61" s="325" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="352"/>
-      <c r="K61" s="353">
+      <c r="J61" s="326"/>
+      <c r="K61" s="327">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="353"/>
+      <c r="L61" s="327"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -7998,18 +8028,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -8019,6 +8037,18 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10700,23 +10730,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="333"/>
-      <c r="C1" s="335" t="s">
+      <c r="B1" s="328"/>
+      <c r="C1" s="330" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
+      <c r="I1" s="331"/>
+      <c r="J1" s="331"/>
+      <c r="K1" s="331"/>
+      <c r="L1" s="331"/>
+      <c r="M1" s="331"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="334"/>
+      <c r="B2" s="329"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10726,21 +10756,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="338"/>
+      <c r="B3" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="333"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="339" t="s">
+      <c r="H3" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="339"/>
+      <c r="I3" s="334"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="316" t="s">
+      <c r="R3" s="337" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10755,14 +10785,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="318" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="319"/>
-      <c r="H4" s="320" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="321"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -12577,11 +12607,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="340">
+      <c r="M45" s="335">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="325">
+      <c r="N45" s="346">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -12611,8 +12641,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="341"/>
-      <c r="N46" s="326"/>
+      <c r="M46" s="336"/>
+      <c r="N46" s="347"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12704,29 +12734,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="327" t="s">
+      <c r="H51" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="328"/>
+      <c r="I51" s="349"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="329">
+      <c r="K51" s="350">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="330"/>
-      <c r="M51" s="331">
+      <c r="L51" s="351"/>
+      <c r="M51" s="352">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="332"/>
+      <c r="N51" s="353"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="324" t="s">
+      <c r="D52" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="324"/>
+      <c r="E52" s="345"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -12737,22 +12767,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="342" t="s">
+      <c r="D53" s="316" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="342"/>
+      <c r="E53" s="316"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="343" t="s">
+      <c r="I53" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="344"/>
-      <c r="K53" s="345">
+      <c r="J53" s="318"/>
+      <c r="K53" s="319">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="346"/>
+      <c r="L53" s="320"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -12783,11 +12813,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="347">
+      <c r="K55" s="321">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="348"/>
+      <c r="L55" s="322"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -12804,22 +12834,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="349" t="s">
+      <c r="D57" s="323" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="350"/>
+      <c r="E57" s="324"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="351" t="s">
+      <c r="I57" s="325" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="352"/>
-      <c r="K57" s="353">
+      <c r="J57" s="326"/>
+      <c r="K57" s="327">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="353"/>
+      <c r="L57" s="327"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -12944,18 +12974,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12965,6 +12983,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14423,23 +14453,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="333"/>
-      <c r="C1" s="335" t="s">
+      <c r="B1" s="328"/>
+      <c r="C1" s="330" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
+      <c r="I1" s="331"/>
+      <c r="J1" s="331"/>
+      <c r="K1" s="331"/>
+      <c r="L1" s="331"/>
+      <c r="M1" s="331"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="334"/>
+      <c r="B2" s="329"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -14449,21 +14479,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="338"/>
+      <c r="B3" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="333"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="339" t="s">
+      <c r="H3" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="339"/>
+      <c r="I3" s="334"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="316" t="s">
+      <c r="R3" s="337" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14478,14 +14508,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="318" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="319"/>
-      <c r="H4" s="320" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="321"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -16292,11 +16322,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="340">
+      <c r="M45" s="335">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="325">
+      <c r="N45" s="346">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -16326,8 +16356,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="341"/>
-      <c r="N46" s="326"/>
+      <c r="M46" s="336"/>
+      <c r="N46" s="347"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -16419,29 +16449,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="327" t="s">
+      <c r="H51" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="328"/>
+      <c r="I51" s="349"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="329">
+      <c r="K51" s="350">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="330"/>
-      <c r="M51" s="331">
+      <c r="L51" s="351"/>
+      <c r="M51" s="352">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="332"/>
+      <c r="N51" s="353"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="324" t="s">
+      <c r="D52" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="324"/>
+      <c r="E52" s="345"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -16452,17 +16482,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="342" t="s">
+      <c r="D53" s="316" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="342"/>
+      <c r="E53" s="316"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="343" t="s">
+      <c r="I53" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="344"/>
+      <c r="J53" s="318"/>
       <c r="K53" s="357">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
@@ -16519,10 +16549,10 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="349" t="s">
+      <c r="D57" s="323" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="350"/>
+      <c r="E57" s="324"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
@@ -16659,6 +16689,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16668,18 +16710,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18081,23 +18111,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="333"/>
-      <c r="C1" s="335" t="s">
+      <c r="B1" s="328"/>
+      <c r="C1" s="330" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
+      <c r="I1" s="331"/>
+      <c r="J1" s="331"/>
+      <c r="K1" s="331"/>
+      <c r="L1" s="331"/>
+      <c r="M1" s="331"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="334"/>
+      <c r="B2" s="329"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -18110,21 +18140,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="338"/>
+      <c r="B3" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="333"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="339" t="s">
+      <c r="H3" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="339"/>
+      <c r="I3" s="334"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="364" t="s">
+      <c r="R3" s="367" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18139,14 +18169,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="318" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="319"/>
-      <c r="H4" s="320" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="321"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -18160,7 +18190,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="356"/>
-      <c r="R4" s="365"/>
+      <c r="R4" s="368"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -20047,11 +20077,11 @@
       <c r="L45" s="314">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="340">
+      <c r="M45" s="335">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="325">
+      <c r="N45" s="346">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -20087,8 +20117,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="341"/>
-      <c r="N46" s="326"/>
+      <c r="M46" s="336"/>
+      <c r="N46" s="347"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -20180,29 +20210,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="327" t="s">
+      <c r="H51" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="328"/>
+      <c r="I51" s="349"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="329">
+      <c r="K51" s="350">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="330"/>
-      <c r="M51" s="331">
+      <c r="L51" s="351"/>
+      <c r="M51" s="352">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="332"/>
+      <c r="N51" s="353"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="324" t="s">
+      <c r="D52" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="324"/>
+      <c r="E52" s="345"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -20213,17 +20243,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="342" t="s">
+      <c r="D53" s="316" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="342"/>
+      <c r="E53" s="316"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="343" t="s">
+      <c r="I53" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="344"/>
+      <c r="J53" s="318"/>
       <c r="K53" s="357">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
@@ -20280,22 +20310,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="349" t="s">
+      <c r="D57" s="323" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="350"/>
+      <c r="E57" s="324"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="366" t="s">
+      <c r="I57" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="367"/>
-      <c r="K57" s="368">
+      <c r="J57" s="365"/>
+      <c r="K57" s="366">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="368"/>
+      <c r="L57" s="366"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -20420,18 +20450,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20441,6 +20459,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21806,8 +21836,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21832,23 +21862,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="333"/>
-      <c r="C1" s="335" t="s">
+      <c r="B1" s="328"/>
+      <c r="C1" s="330" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
+      <c r="I1" s="331"/>
+      <c r="J1" s="331"/>
+      <c r="K1" s="331"/>
+      <c r="L1" s="331"/>
+      <c r="M1" s="331"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="334"/>
+      <c r="B2" s="329"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -21861,21 +21891,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="338"/>
+      <c r="B3" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="333"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="339" t="s">
+      <c r="H3" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="339"/>
+      <c r="I3" s="334"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="364" t="s">
+      <c r="R3" s="369" t="s">
         <v>2</v>
       </c>
     </row>
@@ -21890,14 +21920,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="318" t="s">
+      <c r="E4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="319"/>
-      <c r="H4" s="320" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="321"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -21911,7 +21941,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="356"/>
-      <c r="R4" s="365"/>
+      <c r="R4" s="370"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -22005,7 +22035,7 @@
         <v>93510</v>
       </c>
       <c r="Q6" s="243">
-        <f t="shared" ref="Q5:Q41" si="0">P6-F6</f>
+        <f t="shared" ref="Q6:Q41" si="0">P6-F6</f>
         <v>11</v>
       </c>
       <c r="R6" s="238">
@@ -22020,40 +22050,44 @@
         <v>45053</v>
       </c>
       <c r="C7" s="25">
-        <v>0</v>
-      </c>
-      <c r="D7" s="42"/>
+        <v>14714</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>267</v>
+      </c>
       <c r="E7" s="27">
         <v>45053</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>9</v>
+      <c r="F7" s="28">
+        <v>62394</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30">
         <v>45053</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="31">
+        <v>5</v>
+      </c>
       <c r="J7" s="258"/>
       <c r="K7" s="102"/>
       <c r="L7" s="259"/>
       <c r="M7" s="33">
-        <v>0</v>
+        <f>30250+29046</f>
+        <v>59296</v>
       </c>
       <c r="N7" s="34">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="O7" s="35"/>
       <c r="P7" s="235">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="236" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R7" s="238">
-        <v>0</v>
+        <v>74354</v>
+      </c>
+      <c r="Q7" s="243">
+        <v>10</v>
+      </c>
+      <c r="R7" s="237">
+        <v>11950</v>
       </c>
       <c r="S7" s="37"/>
     </row>
@@ -22069,32 +22103,36 @@
       <c r="E8" s="27">
         <v>45054</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="28">
+        <v>196857</v>
+      </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30">
         <v>45054</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="31">
+        <v>153</v>
+      </c>
       <c r="J8" s="258"/>
       <c r="K8" s="260"/>
       <c r="L8" s="259"/>
       <c r="M8" s="33">
-        <v>0</v>
+        <f>52700+146098</f>
+        <v>198798</v>
       </c>
       <c r="N8" s="34">
-        <v>0</v>
+        <v>773</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="235">
         <f t="shared" ref="P8:P45" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199724</v>
+      </c>
+      <c r="Q8" s="243">
+        <v>23</v>
       </c>
       <c r="R8" s="238">
-        <v>0</v>
+        <v>2844</v>
       </c>
       <c r="S8" s="37"/>
     </row>
@@ -22104,35 +22142,41 @@
         <v>45055</v>
       </c>
       <c r="C9" s="25">
-        <v>0</v>
-      </c>
-      <c r="D9" s="46"/>
+        <v>3480</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>100</v>
+      </c>
       <c r="E9" s="27">
         <v>45055</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="28">
+        <v>44290</v>
+      </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30">
         <v>45055</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="31">
+        <v>168</v>
+      </c>
       <c r="J9" s="258"/>
       <c r="K9" s="261"/>
       <c r="L9" s="259"/>
       <c r="M9" s="33">
-        <v>0</v>
+        <v>39891</v>
       </c>
       <c r="N9" s="34">
-        <v>0</v>
+        <v>774</v>
       </c>
       <c r="O9" s="35"/>
       <c r="P9" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44313</v>
+      </c>
+      <c r="Q9" s="243">
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="R9" s="238">
         <v>0</v>
@@ -22151,29 +22195,34 @@
       <c r="E10" s="27">
         <v>45056</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="28">
+        <v>125195</v>
+      </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30">
         <v>45056</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="31">
+        <v>50</v>
+      </c>
       <c r="J10" s="258"/>
       <c r="K10" s="262"/>
       <c r="L10" s="263"/>
       <c r="M10" s="33">
-        <v>0</v>
+        <f>25300+97775</f>
+        <v>123075</v>
       </c>
       <c r="N10" s="34">
-        <v>0</v>
+        <v>2134</v>
       </c>
       <c r="O10" s="35"/>
       <c r="P10" s="235">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>125259</v>
+      </c>
+      <c r="Q10" s="243">
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="R10" s="238">
         <v>0</v>
@@ -22195,17 +22244,22 @@
       <c r="E11" s="27">
         <v>45057</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="28">
+        <v>102966</v>
+      </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30">
         <v>45057</v>
       </c>
-      <c r="I11" s="31"/>
+      <c r="I11" s="31">
+        <v>37</v>
+      </c>
       <c r="J11" s="258"/>
       <c r="K11" s="261"/>
       <c r="L11" s="259"/>
       <c r="M11" s="33">
-        <v>0</v>
+        <f>59900+43029</f>
+        <v>102929</v>
       </c>
       <c r="N11" s="34">
         <v>0</v>
@@ -22213,7 +22267,7 @@
       <c r="O11" s="35"/>
       <c r="P11" s="235">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>102966</v>
       </c>
       <c r="Q11" s="236">
         <f t="shared" si="0"/>
@@ -22230,35 +22284,42 @@
         <v>45058</v>
       </c>
       <c r="C12" s="25">
-        <v>0</v>
-      </c>
-      <c r="D12" s="38"/>
+        <v>13187</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>267</v>
+      </c>
       <c r="E12" s="27">
         <v>45058</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="28">
+        <v>121939</v>
+      </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30">
         <v>45058</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="31">
+        <v>81</v>
+      </c>
       <c r="J12" s="258"/>
       <c r="K12" s="264"/>
       <c r="L12" s="259"/>
       <c r="M12" s="33">
-        <v>0</v>
+        <f>22200+85632</f>
+        <v>107832</v>
       </c>
       <c r="N12" s="34">
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="O12" s="35"/>
       <c r="P12" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121965</v>
+      </c>
+      <c r="Q12" s="243">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="R12" s="238">
         <v>0</v>
@@ -22277,29 +22338,40 @@
       <c r="E13" s="27">
         <v>45059</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28">
+        <v>96083</v>
+      </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30">
         <v>45059</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="258"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="259"/>
+      <c r="I13" s="31">
+        <v>106</v>
+      </c>
+      <c r="J13" s="258">
+        <v>45059</v>
+      </c>
+      <c r="K13" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="L13" s="259">
+        <v>9388</v>
+      </c>
       <c r="M13" s="33">
-        <v>0</v>
+        <f>46100+38937</f>
+        <v>85037</v>
       </c>
       <c r="N13" s="34">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="O13" s="35"/>
       <c r="P13" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96131</v>
+      </c>
+      <c r="Q13" s="243">
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="R13" s="238">
         <v>0</v>
@@ -22312,35 +22384,42 @@
         <v>45060</v>
       </c>
       <c r="C14" s="25">
-        <v>0</v>
-      </c>
-      <c r="D14" s="46"/>
+        <v>4350</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>269</v>
+      </c>
       <c r="E14" s="27">
         <v>45060</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>97009</v>
+      </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30">
         <v>45060</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="31">
+        <v>0</v>
+      </c>
       <c r="J14" s="258"/>
       <c r="K14" s="260"/>
       <c r="L14" s="259"/>
       <c r="M14" s="33">
-        <v>0</v>
+        <f>44850+47350</f>
+        <v>92200</v>
       </c>
       <c r="N14" s="34">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="O14" s="35"/>
       <c r="P14" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>97024</v>
+      </c>
+      <c r="Q14" s="243">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="R14" s="238">
         <v>0</v>
@@ -22353,31 +22432,40 @@
         <v>45061</v>
       </c>
       <c r="C15" s="25">
-        <v>0</v>
-      </c>
-      <c r="D15" s="46"/>
+        <v>1673</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>74</v>
+      </c>
       <c r="E15" s="27">
         <v>45061</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28">
+        <v>185145</v>
+      </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30">
         <v>45061</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="31">
+        <v>72</v>
+      </c>
       <c r="J15" s="258"/>
       <c r="K15" s="260"/>
       <c r="L15" s="259"/>
       <c r="M15" s="33">
-        <v>0</v>
+        <f>69000+114109</f>
+        <v>183109</v>
       </c>
       <c r="N15" s="34">
-        <v>0</v>
-      </c>
-      <c r="O15" s="35"/>
+        <v>291</v>
+      </c>
+      <c r="O15" s="371" t="s">
+        <v>270</v>
+      </c>
       <c r="P15" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>185145</v>
       </c>
       <c r="Q15" s="236">
         <f t="shared" si="0"/>
@@ -22400,29 +22488,34 @@
       <c r="E16" s="27">
         <v>45062</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>94866</v>
+      </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30">
         <v>45062</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="31">
+        <v>600</v>
+      </c>
       <c r="J16" s="258"/>
       <c r="K16" s="260"/>
       <c r="L16" s="13"/>
       <c r="M16" s="33">
-        <v>0</v>
+        <f>42050+50702</f>
+        <v>92752</v>
       </c>
       <c r="N16" s="34">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="O16" s="35"/>
       <c r="P16" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>94912</v>
+      </c>
+      <c r="Q16" s="243">
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="R16" s="238">
         <v>0</v>
@@ -22441,29 +22534,33 @@
       <c r="E17" s="27">
         <v>45063</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28">
+        <v>50639</v>
+      </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30">
         <v>45063</v>
       </c>
-      <c r="I17" s="31"/>
+      <c r="I17" s="31">
+        <v>490</v>
+      </c>
       <c r="J17" s="258"/>
       <c r="K17" s="260"/>
       <c r="L17" s="263"/>
       <c r="M17" s="33">
-        <v>0</v>
+        <v>49762</v>
       </c>
       <c r="N17" s="34">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50651</v>
+      </c>
+      <c r="Q17" s="243">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="R17" s="238">
         <v>0</v>
@@ -22482,29 +22579,34 @@
       <c r="E18" s="27">
         <v>45064</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28">
+        <v>126228</v>
+      </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30">
         <v>45064</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="31">
+        <v>111</v>
+      </c>
       <c r="J18" s="258"/>
       <c r="K18" s="265"/>
       <c r="L18" s="259"/>
       <c r="M18" s="33">
-        <v>0</v>
+        <f>30600+94047</f>
+        <v>124647</v>
       </c>
       <c r="N18" s="34">
-        <v>0</v>
+        <v>1515</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>126273</v>
+      </c>
+      <c r="Q18" s="243">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="R18" s="238">
         <v>0</v>
@@ -22517,35 +22619,42 @@
         <v>45065</v>
       </c>
       <c r="C19" s="25">
-        <v>0</v>
-      </c>
-      <c r="D19" s="38"/>
+        <v>3470</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>267</v>
+      </c>
       <c r="E19" s="27">
         <v>45065</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28">
+        <v>104774</v>
+      </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30">
         <v>45065</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="31">
+        <v>84</v>
+      </c>
       <c r="J19" s="258"/>
       <c r="K19" s="266"/>
       <c r="L19" s="267"/>
       <c r="M19" s="33">
-        <v>0</v>
+        <f>19700+80997</f>
+        <v>100697</v>
       </c>
       <c r="N19" s="34">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="O19" s="35"/>
       <c r="P19" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>104791</v>
+      </c>
+      <c r="Q19" s="243">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="R19" s="238">
         <v>0</v>
@@ -23422,7 +23531,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="236">
-        <f t="shared" ref="Q8:Q44" si="2">P42-F42</f>
+        <f t="shared" ref="Q42:Q44" si="2">P42-F42</f>
         <v>0</v>
       </c>
       <c r="R42" s="238">
@@ -23507,25 +23616,25 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="340">
+      <c r="M45" s="335">
         <f>SUM(M5:M39)</f>
-        <v>281234</v>
-      </c>
-      <c r="N45" s="325">
+        <v>1641259</v>
+      </c>
+      <c r="N45" s="346">
         <f>SUM(N5:N39)</f>
-        <v>7555</v>
+        <v>18819</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="1"/>
-        <v>288789</v>
-      </c>
-      <c r="Q45" s="99" t="e">
+        <v>1660078</v>
+      </c>
+      <c r="Q45" s="99">
         <f>SUM(Q5:Q39)</f>
-        <v>#VALUE!</v>
+        <v>340</v>
       </c>
       <c r="R45" s="99">
         <f>SUM(R5:R39)</f>
-        <v>13465</v>
+        <v>28259</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23541,8 +23650,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="341"/>
-      <c r="N46" s="326"/>
+      <c r="M46" s="336"/>
+      <c r="N46" s="347"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -23592,7 +23701,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>480</v>
+        <v>41354</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -23600,7 +23709,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>287109</v>
+        <v>1695494</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -23608,7 +23717,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>414</v>
+        <v>2371</v>
       </c>
       <c r="J49" s="290"/>
       <c r="K49" s="291" t="s">
@@ -23616,7 +23725,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>10902</v>
+        <v>20290</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -23634,32 +23743,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="327" t="s">
+      <c r="H51" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="328"/>
+      <c r="I51" s="349"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="329">
+      <c r="K51" s="350">
         <f>I49+L49</f>
-        <v>11316</v>
-      </c>
-      <c r="L51" s="330"/>
-      <c r="M51" s="331">
+        <v>22661</v>
+      </c>
+      <c r="L51" s="351"/>
+      <c r="M51" s="352">
         <f>N45+M45</f>
-        <v>288789</v>
-      </c>
-      <c r="N51" s="332"/>
+        <v>1660078</v>
+      </c>
+      <c r="N51" s="353"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="324" t="s">
+      <c r="D52" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="324"/>
+      <c r="E52" s="345"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>275313</v>
+        <v>1631479</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -23667,20 +23776,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="342" t="s">
+      <c r="D53" s="316" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="342"/>
+      <c r="E53" s="316"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="343" t="s">
+      <c r="I53" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="344"/>
+      <c r="J53" s="318"/>
       <c r="K53" s="357">
         <f>F55+F56+F57</f>
-        <v>275313</v>
+        <v>1631479</v>
       </c>
       <c r="L53" s="358"/>
       <c r="P53" s="36"/>
@@ -23706,7 +23815,7 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>275313</v>
+        <v>1631479</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
@@ -23734,22 +23843,22 @@
       <c r="C57" s="150">
         <v>0</v>
       </c>
-      <c r="D57" s="349" t="s">
+      <c r="D57" s="323" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="350"/>
+      <c r="E57" s="324"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="366" t="s">
+      <c r="I57" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="367"/>
-      <c r="K57" s="368">
+      <c r="J57" s="365"/>
+      <c r="K57" s="366">
         <f>K53+K55</f>
-        <v>-119235.70000000001</v>
-      </c>
-      <c r="L57" s="368"/>
+        <v>1236930.3</v>
+      </c>
+      <c r="L57" s="366"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -23874,6 +23983,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23883,18 +24004,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  HERRADURA  MAYO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  HERRADURA  MAYO    2023.xlsx
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="275">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1151,6 +1151,18 @@
   </si>
   <si>
     <t>s/comision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONGANIZA   </t>
+  </si>
+  <si>
+    <t>NOMINA # 20</t>
+  </si>
+  <si>
+    <t>NORMA</t>
+  </si>
+  <si>
+    <t>ESTHER</t>
   </si>
 </sst>
 </file>
@@ -2539,7 +2551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="372">
+  <cellXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3154,6 +3166,9 @@
     <xf numFmtId="16" fontId="18" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="8" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3319,7 +3334,7 @@
     <xf numFmtId="44" fontId="51" fillId="12" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5775,23 +5790,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="329"/>
+      <c r="C1" s="331" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="330"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -5801,21 +5816,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="333" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="334"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="335"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="337" t="s">
+      <c r="R3" s="338" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5830,14 +5845,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="340" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="341"/>
+      <c r="H4" s="342" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="343"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -5847,11 +5862,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="343" t="s">
+      <c r="P4" s="344" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="344"/>
-      <c r="R4" s="338"/>
+      <c r="Q4" s="345"/>
+      <c r="R4" s="339"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7656,11 +7671,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="335">
+      <c r="M49" s="336">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="346">
+      <c r="N49" s="347">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -7695,8 +7710,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="336"/>
-      <c r="N50" s="347"/>
+      <c r="M50" s="337"/>
+      <c r="N50" s="348"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -7788,29 +7803,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="348" t="s">
+      <c r="H55" s="349" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="349"/>
+      <c r="I55" s="350"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="350">
+      <c r="K55" s="351">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="351"/>
-      <c r="M55" s="352">
+      <c r="L55" s="352"/>
+      <c r="M55" s="353">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="353"/>
+      <c r="N55" s="354"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="345" t="s">
+      <c r="D56" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="345"/>
+      <c r="E56" s="346"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -7821,22 +7836,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="316" t="s">
+      <c r="D57" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="316"/>
+      <c r="E57" s="317"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="317" t="s">
+      <c r="I57" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="318"/>
-      <c r="K57" s="319">
+      <c r="J57" s="319"/>
+      <c r="K57" s="320">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="320"/>
+      <c r="L57" s="321"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -7867,11 +7882,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="321">
+      <c r="K59" s="322">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="322"/>
+      <c r="L59" s="323"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -7888,22 +7903,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="323" t="s">
+      <c r="D61" s="324" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="324"/>
+      <c r="E61" s="325"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="325" t="s">
+      <c r="I61" s="326" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="326"/>
-      <c r="K61" s="327">
+      <c r="J61" s="327"/>
+      <c r="K61" s="328">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="327"/>
+      <c r="L61" s="328"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -10730,23 +10745,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="329"/>
+      <c r="C1" s="331" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="330"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10756,21 +10771,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="333" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="334"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="335"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="337" t="s">
+      <c r="R3" s="338" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10785,14 +10800,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="340" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="341"/>
+      <c r="H4" s="342" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="343"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -10802,11 +10817,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="355" t="s">
+      <c r="P4" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="356"/>
-      <c r="R4" s="354"/>
+      <c r="Q4" s="357"/>
+      <c r="R4" s="355"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -12607,11 +12622,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="335">
+      <c r="M45" s="336">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="346">
+      <c r="N45" s="347">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -12641,8 +12656,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="336"/>
-      <c r="N46" s="347"/>
+      <c r="M46" s="337"/>
+      <c r="N46" s="348"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12734,29 +12749,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="348" t="s">
+      <c r="H51" s="349" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="349"/>
+      <c r="I51" s="350"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="350">
+      <c r="K51" s="351">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="351"/>
-      <c r="M51" s="352">
+      <c r="L51" s="352"/>
+      <c r="M51" s="353">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="353"/>
+      <c r="N51" s="354"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="345" t="s">
+      <c r="D52" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="345"/>
+      <c r="E52" s="346"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -12767,22 +12782,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="316" t="s">
+      <c r="D53" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="316"/>
+      <c r="E53" s="317"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="317" t="s">
+      <c r="I53" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="318"/>
-      <c r="K53" s="319">
+      <c r="J53" s="319"/>
+      <c r="K53" s="320">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="320"/>
+      <c r="L53" s="321"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -12813,11 +12828,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="321">
+      <c r="K55" s="322">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="322"/>
+      <c r="L55" s="323"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -12834,22 +12849,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="323" t="s">
+      <c r="D57" s="324" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="324"/>
+      <c r="E57" s="325"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="325" t="s">
+      <c r="I57" s="326" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="326"/>
-      <c r="K57" s="327">
+      <c r="J57" s="327"/>
+      <c r="K57" s="328">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="327"/>
+      <c r="L57" s="328"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -14453,23 +14468,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="329"/>
+      <c r="C1" s="331" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="330"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -14479,21 +14494,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="333" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="334"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="335"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="337" t="s">
+      <c r="R3" s="338" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14508,14 +14523,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="340" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="341"/>
+      <c r="H4" s="342" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="343"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -14525,11 +14540,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="355" t="s">
+      <c r="P4" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="356"/>
-      <c r="R4" s="354"/>
+      <c r="Q4" s="357"/>
+      <c r="R4" s="355"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16322,11 +16337,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="335">
+      <c r="M45" s="336">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="346">
+      <c r="N45" s="347">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -16356,8 +16371,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="336"/>
-      <c r="N46" s="347"/>
+      <c r="M46" s="337"/>
+      <c r="N46" s="348"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -16449,29 +16464,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="348" t="s">
+      <c r="H51" s="349" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="349"/>
+      <c r="I51" s="350"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="350">
+      <c r="K51" s="351">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="351"/>
-      <c r="M51" s="352">
+      <c r="L51" s="352"/>
+      <c r="M51" s="353">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="353"/>
+      <c r="N51" s="354"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="345" t="s">
+      <c r="D52" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="345"/>
+      <c r="E52" s="346"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -16482,22 +16497,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="316" t="s">
+      <c r="D53" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="316"/>
+      <c r="E53" s="317"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="317" t="s">
+      <c r="I53" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="318"/>
-      <c r="K53" s="357">
+      <c r="J53" s="319"/>
+      <c r="K53" s="358">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
       </c>
-      <c r="L53" s="358"/>
+      <c r="L53" s="359"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -16528,11 +16543,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="359">
+      <c r="K55" s="360">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="360"/>
+      <c r="L55" s="361"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -16549,22 +16564,22 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="323" t="s">
+      <c r="D57" s="324" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="324"/>
+      <c r="E57" s="325"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
-      <c r="I57" s="361" t="s">
+      <c r="I57" s="362" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="362"/>
-      <c r="K57" s="363">
+      <c r="J57" s="363"/>
+      <c r="K57" s="364">
         <f>K53+K55</f>
         <v>-262575.91999999993</v>
       </c>
-      <c r="L57" s="363"/>
+      <c r="L57" s="364"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -18111,23 +18126,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="329"/>
+      <c r="C1" s="331" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="330"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -18140,21 +18155,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="333" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="334"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="335"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="367" t="s">
+      <c r="R3" s="368" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18169,14 +18184,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="340" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="341"/>
+      <c r="H4" s="342" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="343"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -18186,11 +18201,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="355" t="s">
+      <c r="P4" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="356"/>
-      <c r="R4" s="368"/>
+      <c r="Q4" s="357"/>
+      <c r="R4" s="369"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -20077,11 +20092,11 @@
       <c r="L45" s="314">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="335">
+      <c r="M45" s="336">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="346">
+      <c r="N45" s="347">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -20117,8 +20132,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="336"/>
-      <c r="N46" s="347"/>
+      <c r="M46" s="337"/>
+      <c r="N46" s="348"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -20210,29 +20225,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="348" t="s">
+      <c r="H51" s="349" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="349"/>
+      <c r="I51" s="350"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="350">
+      <c r="K51" s="351">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="351"/>
-      <c r="M51" s="352">
+      <c r="L51" s="352"/>
+      <c r="M51" s="353">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="353"/>
+      <c r="N51" s="354"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="345" t="s">
+      <c r="D52" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="345"/>
+      <c r="E52" s="346"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -20243,22 +20258,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="316" t="s">
+      <c r="D53" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="316"/>
+      <c r="E53" s="317"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="317" t="s">
+      <c r="I53" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="318"/>
-      <c r="K53" s="357">
+      <c r="J53" s="319"/>
+      <c r="K53" s="358">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
       </c>
-      <c r="L53" s="358"/>
+      <c r="L53" s="359"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -20289,11 +20304,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="359">
+      <c r="K55" s="360">
         <f>-C4</f>
         <v>-341192.34</v>
       </c>
-      <c r="L55" s="360"/>
+      <c r="L55" s="361"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -20310,22 +20325,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="323" t="s">
+      <c r="D57" s="324" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="324"/>
+      <c r="E57" s="325"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="364" t="s">
+      <c r="I57" s="365" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="365"/>
-      <c r="K57" s="366">
+      <c r="J57" s="366"/>
+      <c r="K57" s="367">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="366"/>
+      <c r="L57" s="367"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -21836,8 +21851,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21862,23 +21877,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="329"/>
+      <c r="C1" s="331" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="330"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -21891,21 +21906,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="333" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="334"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="335"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="369" t="s">
+      <c r="R3" s="370" t="s">
         <v>2</v>
       </c>
     </row>
@@ -21920,14 +21935,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="340" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="341"/>
+      <c r="H4" s="342" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="343"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -21937,11 +21952,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="355" t="s">
+      <c r="P4" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="356"/>
-      <c r="R4" s="370"/>
+      <c r="Q4" s="357"/>
+      <c r="R4" s="371"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -21990,7 +22005,9 @@
       <c r="R5" s="237">
         <v>13465</v>
       </c>
-      <c r="S5" s="37"/>
+      <c r="S5" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
@@ -22041,7 +22058,9 @@
       <c r="R6" s="238">
         <v>0</v>
       </c>
-      <c r="S6" s="37"/>
+      <c r="S6" s="37" t="s">
+        <v>274</v>
+      </c>
       <c r="T6" s="9"/>
     </row>
     <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22089,7 +22108,9 @@
       <c r="R7" s="237">
         <v>11950</v>
       </c>
-      <c r="S7" s="37"/>
+      <c r="S7" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
@@ -22131,10 +22152,12 @@
       <c r="Q8" s="243">
         <v>23</v>
       </c>
-      <c r="R8" s="238">
+      <c r="R8" s="237">
         <v>2844</v>
       </c>
-      <c r="S8" s="37"/>
+      <c r="S8" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
@@ -22181,7 +22204,9 @@
       <c r="R9" s="238">
         <v>0</v>
       </c>
-      <c r="S9" s="37"/>
+      <c r="S9" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
@@ -22227,7 +22252,9 @@
       <c r="R10" s="238">
         <v>0</v>
       </c>
-      <c r="S10" s="37"/>
+      <c r="S10" s="37" t="s">
+        <v>274</v>
+      </c>
       <c r="U10" t="s">
         <v>9</v>
       </c>
@@ -22276,7 +22303,9 @@
       <c r="R11" s="238">
         <v>0</v>
       </c>
-      <c r="S11" s="37"/>
+      <c r="S11" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
@@ -22324,7 +22353,9 @@
       <c r="R12" s="238">
         <v>0</v>
       </c>
-      <c r="S12" s="37"/>
+      <c r="S12" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
@@ -22376,7 +22407,9 @@
       <c r="R13" s="238">
         <v>0</v>
       </c>
-      <c r="S13" s="37"/>
+      <c r="S13" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
@@ -22424,7 +22457,9 @@
       <c r="R14" s="238">
         <v>0</v>
       </c>
-      <c r="S14" s="37"/>
+      <c r="S14" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
@@ -22460,7 +22495,7 @@
       <c r="N15" s="34">
         <v>291</v>
       </c>
-      <c r="O15" s="371" t="s">
+      <c r="O15" s="316" t="s">
         <v>270</v>
       </c>
       <c r="P15" s="235">
@@ -22474,7 +22509,9 @@
       <c r="R15" s="238">
         <v>0</v>
       </c>
-      <c r="S15" s="37"/>
+      <c r="S15" s="37" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
@@ -22520,7 +22557,9 @@
       <c r="R16" s="238">
         <v>0</v>
       </c>
-      <c r="S16" s="37"/>
+      <c r="S16" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23"/>
@@ -22565,7 +22604,9 @@
       <c r="R17" s="238">
         <v>0</v>
       </c>
-      <c r="S17" s="37"/>
+      <c r="S17" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="18" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
@@ -22611,7 +22652,9 @@
       <c r="R18" s="238">
         <v>0</v>
       </c>
-      <c r="S18" s="37"/>
+      <c r="S18" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="19" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
@@ -22659,7 +22702,9 @@
       <c r="R19" s="238">
         <v>0</v>
       </c>
-      <c r="S19" s="37"/>
+      <c r="S19" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="20" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
@@ -22667,40 +22712,55 @@
         <v>45066</v>
       </c>
       <c r="C20" s="25">
-        <v>0</v>
-      </c>
-      <c r="D20" s="38"/>
+        <v>3000</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>271</v>
+      </c>
       <c r="E20" s="27">
         <v>45066</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28">
+        <v>107537</v>
+      </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30">
         <v>45066</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="258"/>
-      <c r="K20" s="262"/>
-      <c r="L20" s="263"/>
+      <c r="I20" s="31">
+        <v>110</v>
+      </c>
+      <c r="J20" s="258">
+        <v>45066</v>
+      </c>
+      <c r="K20" s="262" t="s">
+        <v>272</v>
+      </c>
+      <c r="L20" s="263">
+        <v>8985</v>
+      </c>
       <c r="M20" s="33">
-        <v>0</v>
+        <f>35300+58782</f>
+        <v>94082</v>
       </c>
       <c r="N20" s="34">
-        <v>0</v>
+        <v>1402</v>
       </c>
       <c r="O20" s="35"/>
       <c r="P20" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107579</v>
+      </c>
+      <c r="Q20" s="243">
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="R20" s="238">
         <v>0</v>
       </c>
-      <c r="S20" s="37"/>
+      <c r="S20" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="21" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
@@ -22714,34 +22774,41 @@
       <c r="E21" s="27">
         <v>45067</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28">
+        <v>61555</v>
+      </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30">
         <v>45067</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="31">
+        <v>9</v>
+      </c>
       <c r="J21" s="258"/>
       <c r="K21" s="268"/>
       <c r="L21" s="263"/>
       <c r="M21" s="33">
-        <v>0</v>
+        <f>34800+26082</f>
+        <v>60882</v>
       </c>
       <c r="N21" s="34">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="O21" s="35"/>
       <c r="P21" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61576</v>
+      </c>
+      <c r="Q21" s="243">
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="R21" s="238">
         <v>0</v>
       </c>
-      <c r="S21" s="37"/>
+      <c r="S21" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="22" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
@@ -22749,31 +22816,40 @@
         <v>45068</v>
       </c>
       <c r="C22" s="25">
-        <v>0</v>
-      </c>
-      <c r="D22" s="38"/>
+        <v>1860</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>100</v>
+      </c>
       <c r="E22" s="27">
         <v>45068</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28">
+        <v>134761</v>
+      </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30">
         <v>45068</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="31">
+        <v>83</v>
+      </c>
       <c r="J22" s="258"/>
       <c r="K22" s="302"/>
       <c r="L22" s="269"/>
       <c r="M22" s="33">
-        <v>0</v>
+        <f>84000+48602</f>
+        <v>132602</v>
       </c>
       <c r="N22" s="34">
-        <v>0</v>
-      </c>
-      <c r="O22" s="35"/>
+        <v>216</v>
+      </c>
+      <c r="O22" s="372" t="s">
+        <v>270</v>
+      </c>
       <c r="P22" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>134761</v>
       </c>
       <c r="Q22" s="236">
         <f t="shared" si="0"/>
@@ -22782,7 +22858,9 @@
       <c r="R22" s="238">
         <v>0</v>
       </c>
-      <c r="S22" s="37"/>
+      <c r="S22" s="37" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
@@ -23616,21 +23694,21 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="335">
+      <c r="M45" s="336">
         <f>SUM(M5:M39)</f>
-        <v>1641259</v>
-      </c>
-      <c r="N45" s="346">
+        <v>1928825</v>
+      </c>
+      <c r="N45" s="347">
         <f>SUM(N5:N39)</f>
-        <v>18819</v>
+        <v>21122</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="1"/>
-        <v>1660078</v>
+        <v>1949947</v>
       </c>
       <c r="Q45" s="99">
         <f>SUM(Q5:Q39)</f>
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="R45" s="99">
         <f>SUM(R5:R39)</f>
@@ -23650,8 +23728,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="336"/>
-      <c r="N46" s="347"/>
+      <c r="M46" s="337"/>
+      <c r="N46" s="348"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -23701,7 +23779,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>41354</v>
+        <v>46214</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -23709,7 +23787,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>1695494</v>
+        <v>1999347</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -23717,7 +23795,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>2371</v>
+        <v>2573</v>
       </c>
       <c r="J49" s="290"/>
       <c r="K49" s="291" t="s">
@@ -23725,7 +23803,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>20290</v>
+        <v>29275</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -23743,32 +23821,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="348" t="s">
+      <c r="H51" s="349" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="349"/>
+      <c r="I51" s="350"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="350">
+      <c r="K51" s="351">
         <f>I49+L49</f>
-        <v>22661</v>
-      </c>
-      <c r="L51" s="351"/>
-      <c r="M51" s="352">
+        <v>31848</v>
+      </c>
+      <c r="L51" s="352"/>
+      <c r="M51" s="353">
         <f>N45+M45</f>
-        <v>1660078</v>
-      </c>
-      <c r="N51" s="353"/>
+        <v>1949947</v>
+      </c>
+      <c r="N51" s="354"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="345" t="s">
+      <c r="D52" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="345"/>
+      <c r="E52" s="346"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>1631479</v>
+        <v>1921285</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -23776,22 +23854,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="316" t="s">
+      <c r="D53" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="316"/>
+      <c r="E53" s="317"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="317" t="s">
+      <c r="I53" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="318"/>
-      <c r="K53" s="357">
+      <c r="J53" s="319"/>
+      <c r="K53" s="358">
         <f>F55+F56+F57</f>
-        <v>1631479</v>
-      </c>
-      <c r="L53" s="358"/>
+        <v>1921285</v>
+      </c>
+      <c r="L53" s="359"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -23815,18 +23893,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>1631479</v>
+        <v>1921285</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="359">
+      <c r="K55" s="360">
         <f>-C4</f>
         <v>-394548.7</v>
       </c>
-      <c r="L55" s="360"/>
+      <c r="L55" s="361"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -23843,22 +23921,22 @@
       <c r="C57" s="150">
         <v>0</v>
       </c>
-      <c r="D57" s="323" t="s">
+      <c r="D57" s="324" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="324"/>
+      <c r="E57" s="325"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="364" t="s">
+      <c r="I57" s="365" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="365"/>
-      <c r="K57" s="366">
+      <c r="J57" s="366"/>
+      <c r="K57" s="367">
         <f>K53+K55</f>
-        <v>1236930.3</v>
-      </c>
-      <c r="L57" s="366"/>
+        <v>1526736.3</v>
+      </c>
+      <c r="L57" s="367"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  HERRADURA  MAYO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  HERRADURA  MAYO    2023.xlsx
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="277">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1163,6 +1163,12 @@
   </si>
   <si>
     <t>ESTHER</t>
+  </si>
+  <si>
+    <t>P.T.U.  2022</t>
+  </si>
+  <si>
+    <t>NOMIAN # 21</t>
   </si>
 </sst>
 </file>
@@ -3169,68 +3175,8 @@
     <xf numFmtId="8" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3283,6 +3229,69 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3313,6 +3322,12 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3322,20 +3337,11 @@
     <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5790,23 +5796,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="329"/>
-      <c r="C1" s="331" t="s">
+      <c r="B1" s="335"/>
+      <c r="C1" s="337" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="330"/>
+      <c r="B2" s="336"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -5816,21 +5822,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="333" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="334"/>
+      <c r="B3" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="340"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="335" t="s">
+      <c r="H3" s="341" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="335"/>
+      <c r="I3" s="341"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="338" t="s">
+      <c r="R3" s="318" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5845,14 +5851,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="340" t="s">
+      <c r="E4" s="320" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="341"/>
-      <c r="H4" s="342" t="s">
+      <c r="F4" s="321"/>
+      <c r="H4" s="322" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="343"/>
+      <c r="I4" s="323"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -5862,11 +5868,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="344" t="s">
+      <c r="P4" s="324" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="345"/>
-      <c r="R4" s="339"/>
+      <c r="Q4" s="325"/>
+      <c r="R4" s="319"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7671,11 +7677,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="336">
+      <c r="M49" s="342">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="347">
+      <c r="N49" s="327">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -7710,8 +7716,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="337"/>
-      <c r="N50" s="348"/>
+      <c r="M50" s="343"/>
+      <c r="N50" s="328"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -7803,29 +7809,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="349" t="s">
+      <c r="H55" s="329" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="350"/>
+      <c r="I55" s="330"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="351">
+      <c r="K55" s="331">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="352"/>
-      <c r="M55" s="353">
+      <c r="L55" s="332"/>
+      <c r="M55" s="333">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="354"/>
+      <c r="N55" s="334"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="346" t="s">
+      <c r="D56" s="326" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="346"/>
+      <c r="E56" s="326"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -7836,22 +7842,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="317" t="s">
+      <c r="D57" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="317"/>
+      <c r="E57" s="344"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="318" t="s">
+      <c r="I57" s="345" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="319"/>
-      <c r="K57" s="320">
+      <c r="J57" s="346"/>
+      <c r="K57" s="347">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="321"/>
+      <c r="L57" s="348"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -7882,11 +7888,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="322">
+      <c r="K59" s="349">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="323"/>
+      <c r="L59" s="350"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -7903,22 +7909,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="324" t="s">
+      <c r="D61" s="351" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="325"/>
+      <c r="E61" s="352"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="326" t="s">
+      <c r="I61" s="353" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="327"/>
-      <c r="K61" s="328">
+      <c r="J61" s="354"/>
+      <c r="K61" s="355">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="328"/>
+      <c r="L61" s="355"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -8043,6 +8049,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -8052,18 +8070,6 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10745,23 +10751,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="329"/>
-      <c r="C1" s="331" t="s">
+      <c r="B1" s="335"/>
+      <c r="C1" s="337" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="330"/>
+      <c r="B2" s="336"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10771,21 +10777,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="333" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="334"/>
+      <c r="B3" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="340"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="335" t="s">
+      <c r="H3" s="341" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="335"/>
+      <c r="I3" s="341"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="338" t="s">
+      <c r="R3" s="318" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10800,14 +10806,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="340" t="s">
+      <c r="E4" s="320" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="341"/>
-      <c r="H4" s="342" t="s">
+      <c r="F4" s="321"/>
+      <c r="H4" s="322" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="343"/>
+      <c r="I4" s="323"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -10817,11 +10823,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="356" t="s">
+      <c r="P4" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="357"/>
-      <c r="R4" s="355"/>
+      <c r="Q4" s="358"/>
+      <c r="R4" s="356"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -12622,11 +12628,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="336">
+      <c r="M45" s="342">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="347">
+      <c r="N45" s="327">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -12656,8 +12662,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="337"/>
-      <c r="N46" s="348"/>
+      <c r="M46" s="343"/>
+      <c r="N46" s="328"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12749,29 +12755,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="349" t="s">
+      <c r="H51" s="329" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="350"/>
+      <c r="I51" s="330"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="351">
+      <c r="K51" s="331">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="352"/>
-      <c r="M51" s="353">
+      <c r="L51" s="332"/>
+      <c r="M51" s="333">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="354"/>
+      <c r="N51" s="334"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="346" t="s">
+      <c r="D52" s="326" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="346"/>
+      <c r="E52" s="326"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -12782,22 +12788,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="317" t="s">
+      <c r="D53" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="317"/>
+      <c r="E53" s="344"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="318" t="s">
+      <c r="I53" s="345" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="319"/>
-      <c r="K53" s="320">
+      <c r="J53" s="346"/>
+      <c r="K53" s="347">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="321"/>
+      <c r="L53" s="348"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -12828,11 +12834,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="322">
+      <c r="K55" s="349">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="323"/>
+      <c r="L55" s="350"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -12849,22 +12855,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="324" t="s">
+      <c r="D57" s="351" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="325"/>
+      <c r="E57" s="352"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="326" t="s">
+      <c r="I57" s="353" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="327"/>
-      <c r="K57" s="328">
+      <c r="J57" s="354"/>
+      <c r="K57" s="355">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="328"/>
+      <c r="L57" s="355"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -12989,6 +12995,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12998,18 +13016,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14468,23 +14474,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="329"/>
-      <c r="C1" s="331" t="s">
+      <c r="B1" s="335"/>
+      <c r="C1" s="337" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="330"/>
+      <c r="B2" s="336"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -14494,21 +14500,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="333" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="334"/>
+      <c r="B3" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="340"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="335" t="s">
+      <c r="H3" s="341" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="335"/>
+      <c r="I3" s="341"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="338" t="s">
+      <c r="R3" s="318" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14523,14 +14529,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="340" t="s">
+      <c r="E4" s="320" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="341"/>
-      <c r="H4" s="342" t="s">
+      <c r="F4" s="321"/>
+      <c r="H4" s="322" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="343"/>
+      <c r="I4" s="323"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -14540,11 +14546,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="356" t="s">
+      <c r="P4" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="357"/>
-      <c r="R4" s="355"/>
+      <c r="Q4" s="358"/>
+      <c r="R4" s="356"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16337,11 +16343,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="336">
+      <c r="M45" s="342">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="347">
+      <c r="N45" s="327">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -16371,8 +16377,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="337"/>
-      <c r="N46" s="348"/>
+      <c r="M46" s="343"/>
+      <c r="N46" s="328"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -16464,29 +16470,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="349" t="s">
+      <c r="H51" s="329" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="350"/>
+      <c r="I51" s="330"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="351">
+      <c r="K51" s="331">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="352"/>
-      <c r="M51" s="353">
+      <c r="L51" s="332"/>
+      <c r="M51" s="333">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="354"/>
+      <c r="N51" s="334"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="346" t="s">
+      <c r="D52" s="326" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="346"/>
+      <c r="E52" s="326"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -16497,22 +16503,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="317" t="s">
+      <c r="D53" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="317"/>
+      <c r="E53" s="344"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="318" t="s">
+      <c r="I53" s="345" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="319"/>
-      <c r="K53" s="358">
+      <c r="J53" s="346"/>
+      <c r="K53" s="359">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
       </c>
-      <c r="L53" s="359"/>
+      <c r="L53" s="360"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -16543,11 +16549,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="360">
+      <c r="K55" s="361">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="361"/>
+      <c r="L55" s="362"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -16564,22 +16570,22 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="324" t="s">
+      <c r="D57" s="351" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="325"/>
+      <c r="E57" s="352"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
-      <c r="I57" s="362" t="s">
+      <c r="I57" s="363" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="363"/>
-      <c r="K57" s="364">
+      <c r="J57" s="364"/>
+      <c r="K57" s="365">
         <f>K53+K55</f>
         <v>-262575.91999999993</v>
       </c>
-      <c r="L57" s="364"/>
+      <c r="L57" s="365"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -16704,18 +16710,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16725,6 +16719,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18126,23 +18132,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="329"/>
-      <c r="C1" s="331" t="s">
+      <c r="B1" s="335"/>
+      <c r="C1" s="337" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="330"/>
+      <c r="B2" s="336"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -18155,21 +18161,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="333" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="334"/>
+      <c r="B3" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="340"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="335" t="s">
+      <c r="H3" s="341" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="335"/>
+      <c r="I3" s="341"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="368" t="s">
+      <c r="R3" s="366" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18184,14 +18190,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="340" t="s">
+      <c r="E4" s="320" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="341"/>
-      <c r="H4" s="342" t="s">
+      <c r="F4" s="321"/>
+      <c r="H4" s="322" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="343"/>
+      <c r="I4" s="323"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -18201,11 +18207,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="356" t="s">
+      <c r="P4" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="357"/>
-      <c r="R4" s="369"/>
+      <c r="Q4" s="358"/>
+      <c r="R4" s="367"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -20092,11 +20098,11 @@
       <c r="L45" s="314">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="336">
+      <c r="M45" s="342">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="347">
+      <c r="N45" s="327">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -20132,8 +20138,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="337"/>
-      <c r="N46" s="348"/>
+      <c r="M46" s="343"/>
+      <c r="N46" s="328"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -20225,29 +20231,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="349" t="s">
+      <c r="H51" s="329" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="350"/>
+      <c r="I51" s="330"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="351">
+      <c r="K51" s="331">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="352"/>
-      <c r="M51" s="353">
+      <c r="L51" s="332"/>
+      <c r="M51" s="333">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="354"/>
+      <c r="N51" s="334"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="346" t="s">
+      <c r="D52" s="326" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="346"/>
+      <c r="E52" s="326"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -20258,22 +20264,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="317" t="s">
+      <c r="D53" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="317"/>
+      <c r="E53" s="344"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="318" t="s">
+      <c r="I53" s="345" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="319"/>
-      <c r="K53" s="358">
+      <c r="J53" s="346"/>
+      <c r="K53" s="359">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
       </c>
-      <c r="L53" s="359"/>
+      <c r="L53" s="360"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -20304,11 +20310,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="360">
+      <c r="K55" s="361">
         <f>-C4</f>
         <v>-341192.34</v>
       </c>
-      <c r="L55" s="361"/>
+      <c r="L55" s="362"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -20325,22 +20331,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="324" t="s">
+      <c r="D57" s="351" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="325"/>
+      <c r="E57" s="352"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="365" t="s">
+      <c r="I57" s="368" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="366"/>
-      <c r="K57" s="367">
+      <c r="J57" s="369"/>
+      <c r="K57" s="370">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="367"/>
+      <c r="L57" s="370"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -20465,6 +20471,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20474,18 +20492,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21851,8 +21857,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21877,23 +21883,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="329"/>
-      <c r="C1" s="331" t="s">
+      <c r="B1" s="335"/>
+      <c r="C1" s="337" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="330"/>
+      <c r="B2" s="336"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -21906,21 +21912,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="333" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="334"/>
+      <c r="B3" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="340"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="335" t="s">
+      <c r="H3" s="341" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="335"/>
+      <c r="I3" s="341"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="370" t="s">
+      <c r="R3" s="371" t="s">
         <v>2</v>
       </c>
     </row>
@@ -21935,14 +21941,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="340" t="s">
+      <c r="E4" s="320" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="341"/>
-      <c r="H4" s="342" t="s">
+      <c r="F4" s="321"/>
+      <c r="H4" s="322" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="343"/>
+      <c r="I4" s="323"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -21952,11 +21958,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="356" t="s">
+      <c r="P4" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="357"/>
-      <c r="R4" s="371"/>
+      <c r="Q4" s="358"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -22844,7 +22850,7 @@
       <c r="N22" s="34">
         <v>216</v>
       </c>
-      <c r="O22" s="372" t="s">
+      <c r="O22" s="317" t="s">
         <v>270</v>
       </c>
       <c r="P22" s="235">
@@ -22874,29 +22880,34 @@
       <c r="E23" s="27">
         <v>45069</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28">
+        <v>56050</v>
+      </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30">
         <v>45069</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="31">
+        <v>0</v>
+      </c>
       <c r="J23" s="270"/>
       <c r="K23" s="271"/>
       <c r="L23" s="263"/>
       <c r="M23" s="33">
-        <v>0</v>
+        <f>13500+41469</f>
+        <v>54969</v>
       </c>
       <c r="N23" s="34">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="O23" s="35"/>
       <c r="P23" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56022</v>
+      </c>
+      <c r="Q23" s="243">
+        <f t="shared" si="0"/>
+        <v>-28</v>
       </c>
       <c r="R23" s="238">
         <v>0</v>
@@ -22915,29 +22926,34 @@
       <c r="E24" s="27">
         <v>45070</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28">
+        <v>84481</v>
+      </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30">
         <v>45070</v>
       </c>
-      <c r="I24" s="31"/>
+      <c r="I24" s="31">
+        <v>719</v>
+      </c>
       <c r="J24" s="272"/>
       <c r="K24" s="271"/>
       <c r="L24" s="273"/>
       <c r="M24" s="33">
-        <v>0</v>
+        <f>62262+20500</f>
+        <v>82762</v>
       </c>
       <c r="N24" s="34">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="O24" s="35"/>
       <c r="P24" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84511</v>
+      </c>
+      <c r="Q24" s="243">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="R24" s="238">
         <v>0</v>
@@ -22956,17 +22972,27 @@
       <c r="E25" s="27">
         <v>45071</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28">
+        <v>72267</v>
+      </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30">
         <v>45071</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="274"/>
-      <c r="K25" s="275"/>
-      <c r="L25" s="276"/>
+      <c r="I25" s="31">
+        <v>108</v>
+      </c>
+      <c r="J25" s="274">
+        <v>45071</v>
+      </c>
+      <c r="K25" s="275" t="s">
+        <v>275</v>
+      </c>
+      <c r="L25" s="276">
+        <v>12969</v>
+      </c>
       <c r="M25" s="33">
-        <v>0</v>
+        <v>59190</v>
       </c>
       <c r="N25" s="34">
         <v>0</v>
@@ -22974,7 +23000,7 @@
       <c r="O25" s="35"/>
       <c r="P25" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>72267</v>
       </c>
       <c r="Q25" s="236">
         <f t="shared" si="0"/>
@@ -22991,35 +23017,42 @@
         <v>45072</v>
       </c>
       <c r="C26" s="25">
-        <v>0</v>
-      </c>
-      <c r="D26" s="38"/>
+        <v>18035</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>267</v>
+      </c>
       <c r="E26" s="27">
         <v>45072</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28">
+        <v>119280</v>
+      </c>
       <c r="G26" s="29"/>
       <c r="H26" s="30">
         <v>45072</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="31">
+        <v>81</v>
+      </c>
       <c r="J26" s="258"/>
       <c r="K26" s="271"/>
       <c r="L26" s="263"/>
       <c r="M26" s="33">
-        <v>0</v>
+        <f>14000+85052</f>
+        <v>99052</v>
       </c>
       <c r="N26" s="34">
-        <v>0</v>
+        <v>2177</v>
       </c>
       <c r="O26" s="35"/>
       <c r="P26" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>119345</v>
+      </c>
+      <c r="Q26" s="243">
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="R26" s="238">
         <v>0</v>
@@ -23038,29 +23071,40 @@
       <c r="E27" s="27">
         <v>45073</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28">
+        <v>79733</v>
+      </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30">
         <v>45073</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="277"/>
-      <c r="K27" s="275"/>
-      <c r="L27" s="276"/>
+      <c r="I27" s="31">
+        <v>61</v>
+      </c>
+      <c r="J27" s="277">
+        <v>45073</v>
+      </c>
+      <c r="K27" s="275" t="s">
+        <v>276</v>
+      </c>
+      <c r="L27" s="276">
+        <v>8700</v>
+      </c>
       <c r="M27" s="33">
-        <v>0</v>
+        <f>28500+37513+3653</f>
+        <v>69666</v>
       </c>
       <c r="N27" s="34">
-        <v>0</v>
+        <v>1347</v>
       </c>
       <c r="O27" s="35"/>
       <c r="P27" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79774</v>
+      </c>
+      <c r="Q27" s="243">
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="R27" s="238">
         <v>0</v>
@@ -23079,29 +23123,34 @@
       <c r="E28" s="27">
         <v>45074</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>84387</v>
+      </c>
       <c r="G28" s="29"/>
       <c r="H28" s="30">
         <v>45074</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="31">
+        <v>5</v>
+      </c>
       <c r="J28" s="278"/>
       <c r="K28" s="71"/>
       <c r="L28" s="276"/>
       <c r="M28" s="33">
-        <v>0</v>
+        <f>27059+57000</f>
+        <v>84059</v>
       </c>
       <c r="N28" s="34">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="O28" s="35"/>
       <c r="P28" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84398</v>
+      </c>
+      <c r="Q28" s="243">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="R28" s="238">
         <v>0</v>
@@ -23120,17 +23169,22 @@
       <c r="E29" s="27">
         <v>45075</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28">
+        <v>110922</v>
+      </c>
       <c r="G29" s="29"/>
       <c r="H29" s="30">
         <v>45075</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="31">
+        <v>149</v>
+      </c>
       <c r="J29" s="277"/>
       <c r="K29" s="279"/>
       <c r="L29" s="276"/>
       <c r="M29" s="33">
-        <v>0</v>
+        <f>5000+105773</f>
+        <v>110773</v>
       </c>
       <c r="N29" s="34">
         <v>0</v>
@@ -23138,7 +23192,7 @@
       <c r="O29" s="35"/>
       <c r="P29" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>110922</v>
       </c>
       <c r="Q29" s="236">
         <f t="shared" si="0"/>
@@ -23162,17 +23216,21 @@
       <c r="E30" s="27">
         <v>45076</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28">
+        <v>65429</v>
+      </c>
       <c r="G30" s="29"/>
       <c r="H30" s="30">
         <v>45076</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="31">
+        <v>67</v>
+      </c>
       <c r="J30" s="86"/>
       <c r="K30" s="280"/>
       <c r="L30" s="281"/>
       <c r="M30" s="33">
-        <v>0</v>
+        <v>65362</v>
       </c>
       <c r="N30" s="34">
         <v>0</v>
@@ -23180,7 +23238,7 @@
       <c r="O30" s="35"/>
       <c r="P30" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65429</v>
       </c>
       <c r="Q30" s="236">
         <f t="shared" si="0"/>
@@ -23203,29 +23261,34 @@
       <c r="E31" s="27">
         <v>45077</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28">
+        <v>65294</v>
+      </c>
       <c r="G31" s="29"/>
       <c r="H31" s="30">
         <v>45077</v>
       </c>
-      <c r="I31" s="31"/>
+      <c r="I31" s="31">
+        <v>483</v>
+      </c>
       <c r="J31" s="86"/>
       <c r="K31" s="282"/>
       <c r="L31" s="283"/>
       <c r="M31" s="33">
-        <v>0</v>
+        <f>38307+26000</f>
+        <v>64307</v>
       </c>
       <c r="N31" s="34">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="O31" s="35"/>
       <c r="P31" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65310</v>
       </c>
       <c r="Q31" s="236">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R31" s="238">
         <v>0</v>
@@ -23357,13 +23420,19 @@
     </row>
     <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="24">
+        <v>45081</v>
+      </c>
       <c r="C35" s="25"/>
       <c r="D35" s="77"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="27">
+        <v>45081</v>
+      </c>
       <c r="F35" s="28"/>
       <c r="G35" s="29"/>
-      <c r="H35" s="30"/>
+      <c r="H35" s="30">
+        <v>45081</v>
+      </c>
       <c r="I35" s="31"/>
       <c r="J35" s="86"/>
       <c r="K35" s="282"/>
@@ -23694,21 +23763,21 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="336">
+      <c r="M45" s="342">
         <f>SUM(M5:M39)</f>
-        <v>1928825</v>
-      </c>
-      <c r="N45" s="347">
+        <v>2618965</v>
+      </c>
+      <c r="N45" s="327">
         <f>SUM(N5:N39)</f>
-        <v>21122</v>
+        <v>27583</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="1"/>
-        <v>1949947</v>
+        <v>2646548</v>
       </c>
       <c r="Q45" s="99">
         <f>SUM(Q5:Q39)</f>
-        <v>403</v>
+        <v>538</v>
       </c>
       <c r="R45" s="99">
         <f>SUM(R5:R39)</f>
@@ -23728,8 +23797,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="337"/>
-      <c r="N46" s="348"/>
+      <c r="M46" s="343"/>
+      <c r="N46" s="328"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -23779,7 +23848,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>46214</v>
+        <v>64249</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -23787,7 +23856,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>1999347</v>
+        <v>2737190</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -23795,7 +23864,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>2573</v>
+        <v>4246</v>
       </c>
       <c r="J49" s="290"/>
       <c r="K49" s="291" t="s">
@@ -23803,7 +23872,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>29275</v>
+        <v>50944</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -23821,32 +23890,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="349" t="s">
+      <c r="H51" s="329" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="350"/>
+      <c r="I51" s="330"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="351">
+      <c r="K51" s="331">
         <f>I49+L49</f>
-        <v>31848</v>
-      </c>
-      <c r="L51" s="352"/>
-      <c r="M51" s="353">
+        <v>55190</v>
+      </c>
+      <c r="L51" s="332"/>
+      <c r="M51" s="333">
         <f>N45+M45</f>
-        <v>1949947</v>
-      </c>
-      <c r="N51" s="354"/>
+        <v>2646548</v>
+      </c>
+      <c r="N51" s="334"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="346" t="s">
+      <c r="D52" s="326" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="346"/>
+      <c r="E52" s="326"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>1921285</v>
+        <v>2617751</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -23854,22 +23923,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="317" t="s">
+      <c r="D53" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="317"/>
+      <c r="E53" s="344"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="318" t="s">
+      <c r="I53" s="345" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="319"/>
-      <c r="K53" s="358">
+      <c r="J53" s="346"/>
+      <c r="K53" s="359">
         <f>F55+F56+F57</f>
-        <v>1921285</v>
-      </c>
-      <c r="L53" s="359"/>
+        <v>2617751</v>
+      </c>
+      <c r="L53" s="360"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -23893,18 +23962,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>1921285</v>
+        <v>2617751</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="360">
+      <c r="K55" s="361">
         <f>-C4</f>
         <v>-394548.7</v>
       </c>
-      <c r="L55" s="361"/>
+      <c r="L55" s="362"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -23921,22 +23990,22 @@
       <c r="C57" s="150">
         <v>0</v>
       </c>
-      <c r="D57" s="324" t="s">
+      <c r="D57" s="351" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="325"/>
+      <c r="E57" s="352"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="365" t="s">
+      <c r="I57" s="368" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="366"/>
-      <c r="K57" s="367">
+      <c r="J57" s="369"/>
+      <c r="K57" s="370">
         <f>K53+K55</f>
-        <v>1526736.3</v>
-      </c>
-      <c r="L57" s="367"/>
+        <v>2223202.2999999998</v>
+      </c>
+      <c r="L57" s="370"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -24061,18 +24130,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24082,6 +24139,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  HERRADURA  MAYO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  HERRADURA  MAYO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="293">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1170,6 +1170,54 @@
   <si>
     <t>NOMIAN # 21</t>
   </si>
+  <si>
+    <t>11226 E</t>
+  </si>
+  <si>
+    <t>11292 E</t>
+  </si>
+  <si>
+    <t>11337 E</t>
+  </si>
+  <si>
+    <t>12188 E</t>
+  </si>
+  <si>
+    <t>11524 E</t>
+  </si>
+  <si>
+    <t>11680 E</t>
+  </si>
+  <si>
+    <t>11686 E</t>
+  </si>
+  <si>
+    <t>11802 E</t>
+  </si>
+  <si>
+    <t>11836 E</t>
+  </si>
+  <si>
+    <t>11862 E</t>
+  </si>
+  <si>
+    <t>11878 E</t>
+  </si>
+  <si>
+    <t>12054 E</t>
+  </si>
+  <si>
+    <t>12125 E</t>
+  </si>
+  <si>
+    <t>12378 E</t>
+  </si>
+  <si>
+    <t>12393 E</t>
+  </si>
+  <si>
+    <t>12394 E</t>
+  </si>
 </sst>
 </file>
 
@@ -1184,7 +1232,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1611,6 +1659,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF660033"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3155,10 +3211,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3178,6 +3230,7 @@
     <xf numFmtId="16" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="54" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3342,6 +3395,9 @@
     </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5796,23 +5852,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="335"/>
-      <c r="C1" s="337" t="s">
+      <c r="B1" s="334"/>
+      <c r="C1" s="336" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="337"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
+      <c r="M1" s="337"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="336"/>
+      <c r="B2" s="335"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -5822,21 +5878,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="340"/>
+      <c r="B3" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="339"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="341" t="s">
+      <c r="H3" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="341"/>
+      <c r="I3" s="340"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="318" t="s">
+      <c r="R3" s="317" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5851,14 +5907,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="320" t="s">
+      <c r="E4" s="319" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="321"/>
-      <c r="H4" s="322" t="s">
+      <c r="F4" s="320"/>
+      <c r="H4" s="321" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="323"/>
+      <c r="I4" s="322"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -5868,11 +5924,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="324" t="s">
+      <c r="P4" s="323" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="325"/>
-      <c r="R4" s="319"/>
+      <c r="Q4" s="324"/>
+      <c r="R4" s="318"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7677,11 +7733,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="342">
+      <c r="M49" s="341">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="327">
+      <c r="N49" s="326">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -7716,8 +7772,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="343"/>
-      <c r="N50" s="328"/>
+      <c r="M50" s="342"/>
+      <c r="N50" s="327"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -7809,29 +7865,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="329" t="s">
+      <c r="H55" s="328" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="330"/>
+      <c r="I55" s="329"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="331">
+      <c r="K55" s="330">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="332"/>
-      <c r="M55" s="333">
+      <c r="L55" s="331"/>
+      <c r="M55" s="332">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="334"/>
+      <c r="N55" s="333"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="326" t="s">
+      <c r="D56" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="326"/>
+      <c r="E56" s="325"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -7842,22 +7898,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="344" t="s">
+      <c r="D57" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="344"/>
+      <c r="E57" s="343"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="345" t="s">
+      <c r="I57" s="344" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="346"/>
-      <c r="K57" s="347">
+      <c r="J57" s="345"/>
+      <c r="K57" s="346">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="348"/>
+      <c r="L57" s="347"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -7888,11 +7944,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="349">
+      <c r="K59" s="348">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="350"/>
+      <c r="L59" s="349"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -7909,22 +7965,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="351" t="s">
+      <c r="D61" s="350" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="352"/>
+      <c r="E61" s="351"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="353" t="s">
+      <c r="I61" s="352" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="354"/>
-      <c r="K61" s="355">
+      <c r="J61" s="353"/>
+      <c r="K61" s="354">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="355"/>
+      <c r="L61" s="354"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -8085,16 +8141,16 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="206" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="207" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="209" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -8239,18 +8295,20 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="308">
+      <c r="A9" s="181">
         <v>45052</v>
       </c>
-      <c r="B9" s="309" t="s">
+      <c r="B9" s="182" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="310"/>
+      <c r="C9" s="149">
+        <v>154193.70000000001</v>
+      </c>
       <c r="D9" s="181"/>
       <c r="E9" s="149"/>
       <c r="F9" s="183">
         <f t="shared" si="0"/>
-        <v>150696.59999999998</v>
+        <v>304890.3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8267,7 +8325,7 @@
       <c r="E10" s="149"/>
       <c r="F10" s="183">
         <f t="shared" si="0"/>
-        <v>178044.75999999998</v>
+        <v>332238.45999999996</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8284,7 +8342,7 @@
       <c r="E11" s="149"/>
       <c r="F11" s="183">
         <f t="shared" si="0"/>
-        <v>286374.95999999996</v>
+        <v>440568.66</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -8301,7 +8359,7 @@
       <c r="E12" s="149"/>
       <c r="F12" s="183">
         <f t="shared" si="0"/>
-        <v>290774.95999999996</v>
+        <v>444968.66</v>
       </c>
       <c r="G12" s="184"/>
     </row>
@@ -8319,7 +8377,7 @@
       <c r="E13" s="149"/>
       <c r="F13" s="183">
         <f t="shared" si="0"/>
-        <v>379933.16</v>
+        <v>534126.86</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8336,7 +8394,7 @@
       <c r="E14" s="149"/>
       <c r="F14" s="183">
         <f t="shared" si="0"/>
-        <v>381871.16</v>
+        <v>536064.86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8353,7 +8411,7 @@
       <c r="E15" s="149"/>
       <c r="F15" s="183">
         <f t="shared" si="0"/>
-        <v>536052.22</v>
+        <v>690245.91999999993</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8370,7 +8428,7 @@
       <c r="E16" s="149"/>
       <c r="F16" s="183">
         <f t="shared" si="0"/>
-        <v>551617.02</v>
+        <v>705810.72</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8387,7 +8445,7 @@
       <c r="E17" s="149"/>
       <c r="F17" s="183">
         <f t="shared" si="0"/>
-        <v>590634.9</v>
+        <v>744828.6</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8404,7 +8462,7 @@
       <c r="E18" s="149"/>
       <c r="F18" s="183">
         <f t="shared" si="0"/>
-        <v>604362.42000000004</v>
+        <v>758556.12</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8421,7 +8479,7 @@
       <c r="E19" s="149"/>
       <c r="F19" s="183">
         <f t="shared" si="0"/>
-        <v>766217.3</v>
+        <v>920411</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8438,7 +8496,7 @@
       <c r="E20" s="149"/>
       <c r="F20" s="183">
         <f t="shared" si="0"/>
-        <v>835574.32000000007</v>
+        <v>989768.02</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8455,7 +8513,7 @@
       <c r="E21" s="149"/>
       <c r="F21" s="183">
         <f t="shared" si="0"/>
-        <v>846691.12000000011</v>
+        <v>1000884.8200000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8472,14 +8530,14 @@
       <c r="E22" s="149"/>
       <c r="F22" s="183">
         <f t="shared" si="0"/>
-        <v>893588.32000000007</v>
+        <v>1047782.02</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="181">
         <v>45059</v>
       </c>
-      <c r="B23" s="311" t="s">
+      <c r="B23" s="309" t="s">
         <v>252</v>
       </c>
       <c r="C23" s="228">
@@ -8489,7 +8547,7 @@
       <c r="E23" s="149"/>
       <c r="F23" s="183">
         <f t="shared" si="0"/>
-        <v>917144.42</v>
+        <v>1071338.1200000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -8506,7 +8564,7 @@
       <c r="E24" s="149"/>
       <c r="F24" s="183">
         <f t="shared" si="0"/>
-        <v>970155.22000000009</v>
+        <v>1124348.9200000002</v>
       </c>
       <c r="G24" s="184"/>
     </row>
@@ -8524,7 +8582,7 @@
       <c r="E25" s="149"/>
       <c r="F25" s="183">
         <f t="shared" si="0"/>
-        <v>1034033.8200000001</v>
+        <v>1188227.5200000003</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8541,7 +8599,7 @@
       <c r="E26" s="149"/>
       <c r="F26" s="183">
         <f t="shared" si="0"/>
-        <v>1086102.4000000001</v>
+        <v>1240296.1000000003</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8558,7 +8616,7 @@
       <c r="E27" s="149"/>
       <c r="F27" s="183">
         <f t="shared" si="0"/>
-        <v>1130060.6000000001</v>
+        <v>1284254.3000000003</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8575,7 +8633,7 @@
       <c r="E28" s="149"/>
       <c r="F28" s="183">
         <f t="shared" si="0"/>
-        <v>1268996.3</v>
+        <v>1423190.0000000002</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8592,7 +8650,7 @@
       <c r="E29" s="149"/>
       <c r="F29" s="183">
         <f t="shared" si="0"/>
-        <v>1329465.1000000001</v>
+        <v>1483658.8000000003</v>
       </c>
       <c r="J29" s="149">
         <v>0</v>
@@ -8612,7 +8670,7 @@
       <c r="E30" s="149"/>
       <c r="F30" s="183">
         <f t="shared" si="0"/>
-        <v>1428512.04</v>
+        <v>1582705.7400000002</v>
       </c>
       <c r="J30" s="149">
         <v>0</v>
@@ -8632,7 +8690,7 @@
       <c r="E31" s="149"/>
       <c r="F31" s="183">
         <f t="shared" si="0"/>
-        <v>1484620.4000000001</v>
+        <v>1638814.1000000003</v>
       </c>
       <c r="J31" s="149">
         <v>0</v>
@@ -8652,7 +8710,7 @@
       <c r="E32" s="149"/>
       <c r="F32" s="183">
         <f t="shared" si="0"/>
-        <v>1592578.9000000001</v>
+        <v>1746772.6000000003</v>
       </c>
       <c r="G32" s="184"/>
       <c r="J32" s="149">
@@ -8673,7 +8731,7 @@
       <c r="E33" s="149"/>
       <c r="F33" s="183">
         <f t="shared" si="0"/>
-        <v>1600894.1</v>
+        <v>1755087.8000000003</v>
       </c>
       <c r="J33" s="149">
         <v>0</v>
@@ -8693,7 +8751,7 @@
       <c r="E34" s="149"/>
       <c r="F34" s="183">
         <f t="shared" si="0"/>
-        <v>1607503.7000000002</v>
+        <v>1761697.4000000004</v>
       </c>
       <c r="J34" s="149">
         <v>0</v>
@@ -8713,7 +8771,7 @@
       <c r="E35" s="149"/>
       <c r="F35" s="183">
         <f t="shared" si="0"/>
-        <v>1665152.6900000002</v>
+        <v>1819346.3900000004</v>
       </c>
       <c r="J35" s="149">
         <v>0</v>
@@ -8733,21 +8791,27 @@
       <c r="E36" s="149"/>
       <c r="F36" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>1881179.8200000003</v>
       </c>
       <c r="J36" s="133">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="181"/>
-      <c r="B37" s="182"/>
-      <c r="C37" s="149"/>
+      <c r="A37" s="181">
+        <v>45070</v>
+      </c>
+      <c r="B37" s="182" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" s="149">
+        <v>80529.399999999994</v>
+      </c>
       <c r="D37" s="181"/>
       <c r="E37" s="149"/>
       <c r="F37" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>1961709.2200000002</v>
       </c>
       <c r="J37" s="187">
         <f>SUM(J29:J36)</f>
@@ -8755,168 +8819,258 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="181"/>
-      <c r="B38" s="182"/>
-      <c r="C38" s="149"/>
+      <c r="A38" s="181">
+        <v>45070</v>
+      </c>
+      <c r="B38" s="182" t="s">
+        <v>278</v>
+      </c>
+      <c r="C38" s="149">
+        <v>42103.8</v>
+      </c>
       <c r="D38" s="181"/>
       <c r="E38" s="149"/>
       <c r="F38" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2003813.0200000003</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="181"/>
-      <c r="B39" s="182"/>
-      <c r="C39" s="149"/>
+      <c r="A39" s="181">
+        <v>45071</v>
+      </c>
+      <c r="B39" s="182" t="s">
+        <v>279</v>
+      </c>
+      <c r="C39" s="149">
+        <v>93750.64</v>
+      </c>
       <c r="D39" s="181"/>
       <c r="E39" s="149"/>
       <c r="F39" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2097563.66</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="181"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="149"/>
+      <c r="A40" s="181">
+        <v>45072</v>
+      </c>
+      <c r="B40" s="182" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" s="149">
+        <v>68130.36</v>
+      </c>
       <c r="D40" s="181"/>
       <c r="E40" s="100"/>
       <c r="F40" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2165694.02</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="181"/>
-      <c r="B41" s="182"/>
-      <c r="C41" s="149"/>
+      <c r="A41" s="181">
+        <v>45073</v>
+      </c>
+      <c r="B41" s="182" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" s="149">
+        <v>81290.36</v>
+      </c>
       <c r="D41" s="181"/>
       <c r="E41" s="100"/>
       <c r="F41" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2246984.38</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="185"/>
-      <c r="B42" s="186"/>
-      <c r="C42" s="149"/>
+      <c r="A42" s="185">
+        <v>45073</v>
+      </c>
+      <c r="B42" s="186" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" s="149">
+        <v>81272.33</v>
+      </c>
       <c r="D42" s="185"/>
       <c r="E42" s="100"/>
       <c r="F42" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2328256.71</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="245"/>
-      <c r="B43" s="247"/>
-      <c r="C43" s="149"/>
+      <c r="A43" s="245">
+        <v>45076</v>
+      </c>
+      <c r="B43" s="247" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" s="149">
+        <v>3381.4</v>
+      </c>
       <c r="D43" s="192"/>
       <c r="E43" s="100"/>
       <c r="F43" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2331638.11</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="246"/>
-      <c r="B44" s="248"/>
-      <c r="C44" s="149"/>
+      <c r="A44" s="246">
+        <v>45076</v>
+      </c>
+      <c r="B44" s="248" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" s="149">
+        <v>2936.2</v>
+      </c>
       <c r="D44" s="192"/>
       <c r="E44" s="100"/>
       <c r="F44" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2334574.31</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="246"/>
-      <c r="B45" s="248"/>
-      <c r="C45" s="149"/>
+      <c r="A45" s="246">
+        <v>45076</v>
+      </c>
+      <c r="B45" s="248" t="s">
+        <v>286</v>
+      </c>
+      <c r="C45" s="149">
+        <v>5871.2</v>
+      </c>
       <c r="D45" s="192"/>
       <c r="E45" s="100"/>
       <c r="F45" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2340445.5100000002</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="246"/>
-      <c r="B46" s="248"/>
-      <c r="C46" s="149"/>
+      <c r="A46" s="246">
+        <v>45076</v>
+      </c>
+      <c r="B46" s="248" t="s">
+        <v>287</v>
+      </c>
+      <c r="C46" s="149">
+        <v>102416.92</v>
+      </c>
       <c r="D46" s="192"/>
       <c r="E46" s="100"/>
       <c r="F46" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2442862.4300000002</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="246"/>
-      <c r="B47" s="248"/>
-      <c r="C47" s="149"/>
+      <c r="A47" s="246">
+        <v>45078</v>
+      </c>
+      <c r="B47" s="248" t="s">
+        <v>288</v>
+      </c>
+      <c r="C47" s="149">
+        <v>123067.92</v>
+      </c>
       <c r="D47" s="192"/>
       <c r="E47" s="100"/>
       <c r="F47" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2565930.35</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="246"/>
-      <c r="B48" s="248"/>
-      <c r="C48" s="149"/>
+      <c r="A48" s="246">
+        <v>45078</v>
+      </c>
+      <c r="B48" s="248" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" s="149">
+        <v>60041</v>
+      </c>
       <c r="D48" s="192"/>
       <c r="E48" s="100"/>
       <c r="F48" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2625971.35</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="246"/>
-      <c r="B49" s="248"/>
-      <c r="C49" s="149"/>
+      <c r="A49" s="246">
+        <v>45079</v>
+      </c>
+      <c r="B49" s="248" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" s="149">
+        <v>111551.03999999999</v>
+      </c>
       <c r="D49" s="192"/>
       <c r="E49" s="100"/>
       <c r="F49" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2737522.39</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="246"/>
-      <c r="B50" s="248"/>
-      <c r="C50" s="149"/>
+      <c r="A50" s="246">
+        <v>45080</v>
+      </c>
+      <c r="B50" s="248" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" s="149">
+        <v>123774.8</v>
+      </c>
       <c r="D50" s="192"/>
       <c r="E50" s="100"/>
       <c r="F50" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2861297.19</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="246"/>
-      <c r="B51" s="248"/>
-      <c r="C51" s="149"/>
+      <c r="A51" s="246">
+        <v>45080</v>
+      </c>
+      <c r="B51" s="248" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" s="149">
+        <v>82069.899999999994</v>
+      </c>
       <c r="D51" s="192"/>
       <c r="E51" s="100"/>
       <c r="F51" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2943367.09</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="246"/>
-      <c r="B52" s="248"/>
-      <c r="C52" s="149"/>
+      <c r="A52" s="246">
+        <v>45080</v>
+      </c>
+      <c r="B52" s="248" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" s="149">
+        <v>12435.2</v>
+      </c>
       <c r="D52" s="192"/>
       <c r="E52" s="100"/>
       <c r="F52" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8927,7 +9081,7 @@
       <c r="E53" s="100"/>
       <c r="F53" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8938,7 +9092,7 @@
       <c r="E54" s="100"/>
       <c r="F54" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8949,7 +9103,7 @@
       <c r="E55" s="100"/>
       <c r="F55" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8960,7 +9114,7 @@
       <c r="E56" s="100"/>
       <c r="F56" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -8971,7 +9125,7 @@
       <c r="E57" s="100"/>
       <c r="F57" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -8982,7 +9136,7 @@
       <c r="E58" s="100"/>
       <c r="F58" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -8993,7 +9147,7 @@
       <c r="E59" s="100"/>
       <c r="F59" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9004,7 +9158,7 @@
       <c r="E60" s="100"/>
       <c r="F60" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9015,7 +9169,7 @@
       <c r="E61" s="100"/>
       <c r="F61" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9026,7 +9180,7 @@
       <c r="E62" s="36"/>
       <c r="F62" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9037,7 +9191,7 @@
       <c r="E63" s="36"/>
       <c r="F63" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9048,7 +9202,7 @@
       <c r="E64" s="36"/>
       <c r="F64" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9059,7 +9213,7 @@
       <c r="E65" s="36"/>
       <c r="F65" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9070,7 +9224,7 @@
       <c r="E66" s="36"/>
       <c r="F66" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9081,7 +9235,7 @@
       <c r="E67" s="36"/>
       <c r="F67" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9092,7 +9246,7 @@
       <c r="E68" s="100"/>
       <c r="F68" s="183">
         <f t="shared" si="0"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9103,7 +9257,7 @@
       <c r="E69" s="100"/>
       <c r="F69" s="183">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9114,7 +9268,7 @@
       <c r="E70" s="100"/>
       <c r="F70" s="183">
         <f t="shared" si="1"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9125,7 +9279,7 @@
       <c r="E71" s="100"/>
       <c r="F71" s="183">
         <f t="shared" si="1"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9136,7 +9290,7 @@
       <c r="E72" s="100"/>
       <c r="F72" s="183">
         <f t="shared" si="1"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9147,7 +9301,7 @@
       <c r="E73" s="100"/>
       <c r="F73" s="183">
         <f t="shared" si="1"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9158,7 +9312,7 @@
       <c r="E74" s="100"/>
       <c r="F74" s="183">
         <f t="shared" si="1"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9169,7 +9323,7 @@
       <c r="E75" s="100"/>
       <c r="F75" s="183">
         <f t="shared" si="1"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9180,7 +9334,7 @@
       <c r="E76" s="100"/>
       <c r="F76" s="183">
         <f t="shared" si="1"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9191,7 +9345,7 @@
       <c r="E77" s="100"/>
       <c r="F77" s="183">
         <f t="shared" si="1"/>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9204,15 +9358,15 @@
       <c r="E78" s="36"/>
       <c r="F78" s="183">
         <f t="shared" si="1"/>
-        <v>1726986.12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2955802.29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="201"/>
       <c r="B79" s="202"/>
-      <c r="C79" s="203">
+      <c r="C79" s="372">
         <f>SUM(C3:C78)</f>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
       <c r="D79" s="175"/>
       <c r="E79" s="204">
@@ -9221,7 +9375,7 @@
       </c>
       <c r="F79" s="205">
         <f>F78</f>
-        <v>1726986.12</v>
+        <v>2955802.29</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -10751,23 +10905,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="335"/>
-      <c r="C1" s="337" t="s">
+      <c r="B1" s="334"/>
+      <c r="C1" s="336" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="337"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
+      <c r="M1" s="337"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="336"/>
+      <c r="B2" s="335"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10777,21 +10931,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="340"/>
+      <c r="B3" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="339"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="341" t="s">
+      <c r="H3" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="341"/>
+      <c r="I3" s="340"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="318" t="s">
+      <c r="R3" s="317" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10806,14 +10960,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="320" t="s">
+      <c r="E4" s="319" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="321"/>
-      <c r="H4" s="322" t="s">
+      <c r="F4" s="320"/>
+      <c r="H4" s="321" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="323"/>
+      <c r="I4" s="322"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -10823,11 +10977,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="357" t="s">
+      <c r="P4" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="358"/>
-      <c r="R4" s="356"/>
+      <c r="Q4" s="357"/>
+      <c r="R4" s="355"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -12628,11 +12782,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="342">
+      <c r="M45" s="341">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="327">
+      <c r="N45" s="326">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -12662,8 +12816,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="343"/>
-      <c r="N46" s="328"/>
+      <c r="M46" s="342"/>
+      <c r="N46" s="327"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12755,29 +12909,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="329" t="s">
+      <c r="H51" s="328" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="330"/>
+      <c r="I51" s="329"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="331">
+      <c r="K51" s="330">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="332"/>
-      <c r="M51" s="333">
+      <c r="L51" s="331"/>
+      <c r="M51" s="332">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="334"/>
+      <c r="N51" s="333"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="326" t="s">
+      <c r="D52" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="326"/>
+      <c r="E52" s="325"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -12788,22 +12942,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="344" t="s">
+      <c r="D53" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="344"/>
+      <c r="E53" s="343"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="345" t="s">
+      <c r="I53" s="344" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="346"/>
-      <c r="K53" s="347">
+      <c r="J53" s="345"/>
+      <c r="K53" s="346">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="348"/>
+      <c r="L53" s="347"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -12834,11 +12988,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="349">
+      <c r="K55" s="348">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="350"/>
+      <c r="L55" s="349"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -12855,22 +13009,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="351" t="s">
+      <c r="D57" s="350" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="352"/>
+      <c r="E57" s="351"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="353" t="s">
+      <c r="I57" s="352" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="354"/>
-      <c r="K57" s="355">
+      <c r="J57" s="353"/>
+      <c r="K57" s="354">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="355"/>
+      <c r="L57" s="354"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -14474,23 +14628,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="335"/>
-      <c r="C1" s="337" t="s">
+      <c r="B1" s="334"/>
+      <c r="C1" s="336" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="337"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
+      <c r="M1" s="337"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="336"/>
+      <c r="B2" s="335"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -14500,21 +14654,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="340"/>
+      <c r="B3" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="339"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="341" t="s">
+      <c r="H3" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="341"/>
+      <c r="I3" s="340"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="318" t="s">
+      <c r="R3" s="317" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14529,14 +14683,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="320" t="s">
+      <c r="E4" s="319" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="321"/>
-      <c r="H4" s="322" t="s">
+      <c r="F4" s="320"/>
+      <c r="H4" s="321" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="323"/>
+      <c r="I4" s="322"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -14546,11 +14700,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="357" t="s">
+      <c r="P4" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="358"/>
-      <c r="R4" s="356"/>
+      <c r="Q4" s="357"/>
+      <c r="R4" s="355"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16343,11 +16497,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="342">
+      <c r="M45" s="341">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="327">
+      <c r="N45" s="326">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -16377,8 +16531,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="343"/>
-      <c r="N46" s="328"/>
+      <c r="M46" s="342"/>
+      <c r="N46" s="327"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -16470,29 +16624,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="329" t="s">
+      <c r="H51" s="328" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="330"/>
+      <c r="I51" s="329"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="331">
+      <c r="K51" s="330">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="332"/>
-      <c r="M51" s="333">
+      <c r="L51" s="331"/>
+      <c r="M51" s="332">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="334"/>
+      <c r="N51" s="333"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="326" t="s">
+      <c r="D52" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="326"/>
+      <c r="E52" s="325"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -16503,22 +16657,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="344" t="s">
+      <c r="D53" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="344"/>
+      <c r="E53" s="343"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="345" t="s">
+      <c r="I53" s="344" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="346"/>
-      <c r="K53" s="359">
+      <c r="J53" s="345"/>
+      <c r="K53" s="358">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
       </c>
-      <c r="L53" s="360"/>
+      <c r="L53" s="359"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -16549,11 +16703,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="361">
+      <c r="K55" s="360">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="362"/>
+      <c r="L55" s="361"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -16570,22 +16724,22 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="351" t="s">
+      <c r="D57" s="350" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="352"/>
+      <c r="E57" s="351"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
-      <c r="I57" s="363" t="s">
+      <c r="I57" s="362" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="364"/>
-      <c r="K57" s="365">
+      <c r="J57" s="363"/>
+      <c r="K57" s="364">
         <f>K53+K55</f>
         <v>-262575.91999999993</v>
       </c>
-      <c r="L57" s="365"/>
+      <c r="L57" s="364"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -18132,23 +18286,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="335"/>
-      <c r="C1" s="337" t="s">
+      <c r="B1" s="334"/>
+      <c r="C1" s="336" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="337"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
+      <c r="M1" s="337"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="336"/>
+      <c r="B2" s="335"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -18161,21 +18315,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="340"/>
+      <c r="B3" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="339"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="341" t="s">
+      <c r="H3" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="341"/>
+      <c r="I3" s="340"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="366" t="s">
+      <c r="R3" s="365" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18190,14 +18344,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="320" t="s">
+      <c r="E4" s="319" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="321"/>
-      <c r="H4" s="322" t="s">
+      <c r="F4" s="320"/>
+      <c r="H4" s="321" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="323"/>
+      <c r="I4" s="322"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -18207,11 +18361,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="357" t="s">
+      <c r="P4" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="358"/>
-      <c r="R4" s="367"/>
+      <c r="Q4" s="357"/>
+      <c r="R4" s="366"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -20016,7 +20170,7 @@
       <c r="J43" s="86">
         <v>45033</v>
       </c>
-      <c r="K43" s="315" t="s">
+      <c r="K43" s="313" t="s">
         <v>230</v>
       </c>
       <c r="L43" s="281">
@@ -20089,20 +20243,20 @@
       <c r="G45" s="29"/>
       <c r="H45" s="30"/>
       <c r="I45" s="96"/>
-      <c r="J45" s="313">
+      <c r="J45" s="311">
         <v>45050</v>
       </c>
-      <c r="K45" s="312" t="s">
+      <c r="K45" s="310" t="s">
         <v>228</v>
       </c>
-      <c r="L45" s="314">
+      <c r="L45" s="312">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="342">
+      <c r="M45" s="341">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="327">
+      <c r="N45" s="326">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -20138,8 +20292,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="343"/>
-      <c r="N46" s="328"/>
+      <c r="M46" s="342"/>
+      <c r="N46" s="327"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -20231,29 +20385,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="329" t="s">
+      <c r="H51" s="328" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="330"/>
+      <c r="I51" s="329"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="331">
+      <c r="K51" s="330">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="332"/>
-      <c r="M51" s="333">
+      <c r="L51" s="331"/>
+      <c r="M51" s="332">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="334"/>
+      <c r="N51" s="333"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="326" t="s">
+      <c r="D52" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="326"/>
+      <c r="E52" s="325"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -20264,22 +20418,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="344" t="s">
+      <c r="D53" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="344"/>
+      <c r="E53" s="343"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="345" t="s">
+      <c r="I53" s="344" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="346"/>
-      <c r="K53" s="359">
+      <c r="J53" s="345"/>
+      <c r="K53" s="358">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
       </c>
-      <c r="L53" s="360"/>
+      <c r="L53" s="359"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -20310,11 +20464,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="361">
+      <c r="K55" s="360">
         <f>-C4</f>
         <v>-341192.34</v>
       </c>
-      <c r="L55" s="362"/>
+      <c r="L55" s="361"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -20331,22 +20485,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="351" t="s">
+      <c r="D57" s="350" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="352"/>
+      <c r="E57" s="351"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="368" t="s">
+      <c r="I57" s="367" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="369"/>
-      <c r="K57" s="370">
+      <c r="J57" s="368"/>
+      <c r="K57" s="369">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="370"/>
+      <c r="L57" s="369"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -21857,8 +22011,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21883,23 +22037,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="335"/>
-      <c r="C1" s="337" t="s">
+      <c r="B1" s="334"/>
+      <c r="C1" s="336" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="337"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
+      <c r="M1" s="337"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="336"/>
+      <c r="B2" s="335"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -21912,21 +22066,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="340"/>
+      <c r="B3" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="339"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="341" t="s">
+      <c r="H3" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="341"/>
+      <c r="I3" s="340"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="371" t="s">
+      <c r="R3" s="370" t="s">
         <v>2</v>
       </c>
     </row>
@@ -21941,14 +22095,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="320" t="s">
+      <c r="E4" s="319" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="321"/>
-      <c r="H4" s="322" t="s">
+      <c r="F4" s="320"/>
+      <c r="H4" s="321" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="323"/>
+      <c r="I4" s="322"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -21958,11 +22112,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="357" t="s">
+      <c r="P4" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="358"/>
-      <c r="R4" s="372"/>
+      <c r="Q4" s="357"/>
+      <c r="R4" s="371"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -22501,7 +22655,7 @@
       <c r="N15" s="34">
         <v>291</v>
       </c>
-      <c r="O15" s="316" t="s">
+      <c r="O15" s="314" t="s">
         <v>270</v>
       </c>
       <c r="P15" s="235">
@@ -22850,7 +23004,7 @@
       <c r="N22" s="34">
         <v>216</v>
       </c>
-      <c r="O22" s="317" t="s">
+      <c r="O22" s="315" t="s">
         <v>270</v>
       </c>
       <c r="P22" s="235">
@@ -23763,11 +23917,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="342">
+      <c r="M45" s="341">
         <f>SUM(M5:M39)</f>
         <v>2618965</v>
       </c>
-      <c r="N45" s="327">
+      <c r="N45" s="326">
         <f>SUM(N5:N39)</f>
         <v>27583</v>
       </c>
@@ -23797,8 +23951,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="343"/>
-      <c r="N46" s="328"/>
+      <c r="M46" s="342"/>
+      <c r="N46" s="327"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -23890,29 +24044,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="329" t="s">
+      <c r="H51" s="328" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="330"/>
+      <c r="I51" s="329"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="331">
+      <c r="K51" s="330">
         <f>I49+L49</f>
         <v>55190</v>
       </c>
-      <c r="L51" s="332"/>
-      <c r="M51" s="333">
+      <c r="L51" s="331"/>
+      <c r="M51" s="332">
         <f>N45+M45</f>
         <v>2646548</v>
       </c>
-      <c r="N51" s="334"/>
+      <c r="N51" s="333"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="326" t="s">
+      <c r="D52" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="326"/>
+      <c r="E52" s="325"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2617751</v>
@@ -23923,22 +24077,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="344" t="s">
+      <c r="D53" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="344"/>
+      <c r="E53" s="343"/>
       <c r="F53" s="131">
-        <v>0</v>
-      </c>
-      <c r="I53" s="345" t="s">
+        <v>-2955802.29</v>
+      </c>
+      <c r="I53" s="344" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="346"/>
-      <c r="K53" s="359">
+      <c r="J53" s="345"/>
+      <c r="K53" s="358">
         <f>F55+F56+F57</f>
-        <v>2617751</v>
-      </c>
-      <c r="L53" s="360"/>
+        <v>7582.3999999999651</v>
+      </c>
+      <c r="L53" s="359"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -23962,18 +24116,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>2617751</v>
+        <v>-338051.29000000004</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="361">
+      <c r="K55" s="360">
         <f>-C4</f>
         <v>-394548.7</v>
       </c>
-      <c r="L55" s="362"/>
+      <c r="L55" s="361"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -23988,24 +24142,24 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150">
-        <v>0</v>
-      </c>
-      <c r="D57" s="351" t="s">
+        <v>45081</v>
+      </c>
+      <c r="D57" s="350" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="352"/>
-      <c r="F57" s="151">
-        <v>0</v>
-      </c>
-      <c r="I57" s="368" t="s">
+      <c r="E57" s="351"/>
+      <c r="F57" s="316">
+        <v>345633.69</v>
+      </c>
+      <c r="I57" s="367" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="369"/>
-      <c r="K57" s="370">
+      <c r="J57" s="368"/>
+      <c r="K57" s="369">
         <f>K53+K55</f>
-        <v>2223202.2999999998</v>
-      </c>
-      <c r="L57" s="370"/>
+        <v>-386966.30000000005</v>
+      </c>
+      <c r="L57" s="369"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  HERRADURA  MAYO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  HERRADURA  MAYO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="299">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1217,6 +1217,24 @@
   </si>
   <si>
     <t>12394 E</t>
+  </si>
+  <si>
+    <t>NOMINA # 22</t>
+  </si>
+  <si>
+    <t>ENCHILADA</t>
+  </si>
+  <si>
+    <t>Servicio Banco</t>
+  </si>
+  <si>
+    <t>comision ???</t>
+  </si>
+  <si>
+    <t>Comsiones banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guadia </t>
   </si>
 </sst>
 </file>
@@ -2613,7 +2631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="375">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3231,6 +3249,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="54" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3282,69 +3366,6 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3375,12 +3396,6 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3390,14 +3405,23 @@
     <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5852,23 +5876,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="334"/>
-      <c r="C1" s="336" t="s">
+      <c r="B1" s="330"/>
+      <c r="C1" s="332" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
-      <c r="I1" s="337"/>
-      <c r="J1" s="337"/>
-      <c r="K1" s="337"/>
-      <c r="L1" s="337"/>
-      <c r="M1" s="337"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="333"/>
+      <c r="M1" s="333"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="335"/>
+      <c r="B2" s="331"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -5878,21 +5902,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="339"/>
+      <c r="B3" s="334" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="335"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="340" t="s">
+      <c r="H3" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="340"/>
+      <c r="I3" s="336"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="317" t="s">
+      <c r="R3" s="339" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5907,14 +5931,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="319" t="s">
+      <c r="E4" s="341" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="320"/>
-      <c r="H4" s="321" t="s">
+      <c r="F4" s="342"/>
+      <c r="H4" s="343" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="322"/>
+      <c r="I4" s="344"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -5924,11 +5948,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="323" t="s">
+      <c r="P4" s="345" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="324"/>
-      <c r="R4" s="318"/>
+      <c r="Q4" s="346"/>
+      <c r="R4" s="340"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7733,11 +7757,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="341">
+      <c r="M49" s="337">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="326">
+      <c r="N49" s="348">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -7772,8 +7796,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="342"/>
-      <c r="N50" s="327"/>
+      <c r="M50" s="338"/>
+      <c r="N50" s="349"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -7865,29 +7889,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="328" t="s">
+      <c r="H55" s="350" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="329"/>
+      <c r="I55" s="351"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="330">
+      <c r="K55" s="352">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="331"/>
-      <c r="M55" s="332">
+      <c r="L55" s="353"/>
+      <c r="M55" s="354">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="333"/>
+      <c r="N55" s="355"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="325" t="s">
+      <c r="D56" s="347" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="325"/>
+      <c r="E56" s="347"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -7898,22 +7922,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="343" t="s">
+      <c r="D57" s="318" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="343"/>
+      <c r="E57" s="318"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="344" t="s">
+      <c r="I57" s="319" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="345"/>
-      <c r="K57" s="346">
+      <c r="J57" s="320"/>
+      <c r="K57" s="321">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="347"/>
+      <c r="L57" s="322"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -7944,11 +7968,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="348">
+      <c r="K59" s="323">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="349"/>
+      <c r="L59" s="324"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -7965,22 +7989,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="350" t="s">
+      <c r="D61" s="325" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="351"/>
+      <c r="E61" s="326"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="352" t="s">
+      <c r="I61" s="327" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="353"/>
-      <c r="K61" s="354">
+      <c r="J61" s="328"/>
+      <c r="K61" s="329">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="354"/>
+      <c r="L61" s="329"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -8105,18 +8129,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -8126,6 +8138,18 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8141,7 +8165,7 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
@@ -9364,7 +9388,7 @@
     <row r="79" spans="1:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="201"/>
       <c r="B79" s="202"/>
-      <c r="C79" s="372">
+      <c r="C79" s="317">
         <f>SUM(C3:C78)</f>
         <v>2955802.29</v>
       </c>
@@ -10905,23 +10929,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="334"/>
-      <c r="C1" s="336" t="s">
+      <c r="B1" s="330"/>
+      <c r="C1" s="332" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
-      <c r="I1" s="337"/>
-      <c r="J1" s="337"/>
-      <c r="K1" s="337"/>
-      <c r="L1" s="337"/>
-      <c r="M1" s="337"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="333"/>
+      <c r="M1" s="333"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="335"/>
+      <c r="B2" s="331"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10931,21 +10955,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="339"/>
+      <c r="B3" s="334" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="335"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="340" t="s">
+      <c r="H3" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="340"/>
+      <c r="I3" s="336"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="317" t="s">
+      <c r="R3" s="339" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10960,14 +10984,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="319" t="s">
+      <c r="E4" s="341" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="320"/>
-      <c r="H4" s="321" t="s">
+      <c r="F4" s="342"/>
+      <c r="H4" s="343" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="322"/>
+      <c r="I4" s="344"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -10977,11 +11001,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="356" t="s">
+      <c r="P4" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="357"/>
-      <c r="R4" s="355"/>
+      <c r="Q4" s="358"/>
+      <c r="R4" s="356"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -12782,11 +12806,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="341">
+      <c r="M45" s="337">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="326">
+      <c r="N45" s="348">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -12816,8 +12840,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="342"/>
-      <c r="N46" s="327"/>
+      <c r="M46" s="338"/>
+      <c r="N46" s="349"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12909,29 +12933,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="328" t="s">
+      <c r="H51" s="350" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="329"/>
+      <c r="I51" s="351"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="330">
+      <c r="K51" s="352">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="331"/>
-      <c r="M51" s="332">
+      <c r="L51" s="353"/>
+      <c r="M51" s="354">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="333"/>
+      <c r="N51" s="355"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="325" t="s">
+      <c r="D52" s="347" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="325"/>
+      <c r="E52" s="347"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -12942,22 +12966,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="343" t="s">
+      <c r="D53" s="318" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="343"/>
+      <c r="E53" s="318"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="344" t="s">
+      <c r="I53" s="319" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="345"/>
-      <c r="K53" s="346">
+      <c r="J53" s="320"/>
+      <c r="K53" s="321">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="347"/>
+      <c r="L53" s="322"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -12988,11 +13012,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="348">
+      <c r="K55" s="323">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="349"/>
+      <c r="L55" s="324"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -13009,22 +13033,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="350" t="s">
+      <c r="D57" s="325" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="351"/>
+      <c r="E57" s="326"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="352" t="s">
+      <c r="I57" s="327" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="353"/>
-      <c r="K57" s="354">
+      <c r="J57" s="328"/>
+      <c r="K57" s="329">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="354"/>
+      <c r="L57" s="329"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -13149,18 +13173,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13170,6 +13182,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14628,23 +14652,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="334"/>
-      <c r="C1" s="336" t="s">
+      <c r="B1" s="330"/>
+      <c r="C1" s="332" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
-      <c r="I1" s="337"/>
-      <c r="J1" s="337"/>
-      <c r="K1" s="337"/>
-      <c r="L1" s="337"/>
-      <c r="M1" s="337"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="333"/>
+      <c r="M1" s="333"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="335"/>
+      <c r="B2" s="331"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -14654,21 +14678,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="339"/>
+      <c r="B3" s="334" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="335"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="340" t="s">
+      <c r="H3" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="340"/>
+      <c r="I3" s="336"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="317" t="s">
+      <c r="R3" s="339" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14683,14 +14707,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="319" t="s">
+      <c r="E4" s="341" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="320"/>
-      <c r="H4" s="321" t="s">
+      <c r="F4" s="342"/>
+      <c r="H4" s="343" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="322"/>
+      <c r="I4" s="344"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -14700,11 +14724,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="356" t="s">
+      <c r="P4" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="357"/>
-      <c r="R4" s="355"/>
+      <c r="Q4" s="358"/>
+      <c r="R4" s="356"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16497,11 +16521,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="341">
+      <c r="M45" s="337">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="326">
+      <c r="N45" s="348">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -16531,8 +16555,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="342"/>
-      <c r="N46" s="327"/>
+      <c r="M46" s="338"/>
+      <c r="N46" s="349"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -16624,29 +16648,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="328" t="s">
+      <c r="H51" s="350" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="329"/>
+      <c r="I51" s="351"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="330">
+      <c r="K51" s="352">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="331"/>
-      <c r="M51" s="332">
+      <c r="L51" s="353"/>
+      <c r="M51" s="354">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="333"/>
+      <c r="N51" s="355"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="325" t="s">
+      <c r="D52" s="347" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="325"/>
+      <c r="E52" s="347"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -16657,22 +16681,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="343" t="s">
+      <c r="D53" s="318" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="343"/>
+      <c r="E53" s="318"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="344" t="s">
+      <c r="I53" s="319" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="345"/>
-      <c r="K53" s="358">
+      <c r="J53" s="320"/>
+      <c r="K53" s="359">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
       </c>
-      <c r="L53" s="359"/>
+      <c r="L53" s="360"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -16703,11 +16727,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="360">
+      <c r="K55" s="361">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="361"/>
+      <c r="L55" s="362"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -16724,22 +16748,22 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="350" t="s">
+      <c r="D57" s="325" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="351"/>
+      <c r="E57" s="326"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
-      <c r="I57" s="362" t="s">
+      <c r="I57" s="363" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="363"/>
-      <c r="K57" s="364">
+      <c r="J57" s="364"/>
+      <c r="K57" s="365">
         <f>K53+K55</f>
         <v>-262575.91999999993</v>
       </c>
-      <c r="L57" s="364"/>
+      <c r="L57" s="365"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -16864,6 +16888,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16873,18 +16909,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18286,23 +18310,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="334"/>
-      <c r="C1" s="336" t="s">
+      <c r="B1" s="330"/>
+      <c r="C1" s="332" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
-      <c r="I1" s="337"/>
-      <c r="J1" s="337"/>
-      <c r="K1" s="337"/>
-      <c r="L1" s="337"/>
-      <c r="M1" s="337"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="333"/>
+      <c r="M1" s="333"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="335"/>
+      <c r="B2" s="331"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -18315,21 +18339,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="339"/>
+      <c r="B3" s="334" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="335"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="340" t="s">
+      <c r="H3" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="340"/>
+      <c r="I3" s="336"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="365" t="s">
+      <c r="R3" s="369" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18344,14 +18368,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="319" t="s">
+      <c r="E4" s="341" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="320"/>
-      <c r="H4" s="321" t="s">
+      <c r="F4" s="342"/>
+      <c r="H4" s="343" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="322"/>
+      <c r="I4" s="344"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -18361,11 +18385,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="356" t="s">
+      <c r="P4" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="357"/>
-      <c r="R4" s="366"/>
+      <c r="Q4" s="358"/>
+      <c r="R4" s="370"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -20252,11 +20276,11 @@
       <c r="L45" s="312">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="341">
+      <c r="M45" s="337">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="326">
+      <c r="N45" s="348">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -20292,8 +20316,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="342"/>
-      <c r="N46" s="327"/>
+      <c r="M46" s="338"/>
+      <c r="N46" s="349"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -20385,29 +20409,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="328" t="s">
+      <c r="H51" s="350" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="329"/>
+      <c r="I51" s="351"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="330">
+      <c r="K51" s="352">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="331"/>
-      <c r="M51" s="332">
+      <c r="L51" s="353"/>
+      <c r="M51" s="354">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="333"/>
+      <c r="N51" s="355"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="325" t="s">
+      <c r="D52" s="347" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="325"/>
+      <c r="E52" s="347"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -20418,22 +20442,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="343" t="s">
+      <c r="D53" s="318" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="343"/>
+      <c r="E53" s="318"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="344" t="s">
+      <c r="I53" s="319" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="345"/>
-      <c r="K53" s="358">
+      <c r="J53" s="320"/>
+      <c r="K53" s="359">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
       </c>
-      <c r="L53" s="359"/>
+      <c r="L53" s="360"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -20464,11 +20488,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="360">
+      <c r="K55" s="361">
         <f>-C4</f>
         <v>-341192.34</v>
       </c>
-      <c r="L55" s="361"/>
+      <c r="L55" s="362"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -20485,22 +20509,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="350" t="s">
+      <c r="D57" s="325" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="351"/>
+      <c r="E57" s="326"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="367" t="s">
+      <c r="I57" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="368"/>
-      <c r="K57" s="369">
+      <c r="J57" s="367"/>
+      <c r="K57" s="368">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="369"/>
+      <c r="L57" s="368"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -20625,18 +20649,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20646,6 +20658,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22011,8 +22035,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22037,23 +22061,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="334"/>
-      <c r="C1" s="336" t="s">
+      <c r="B1" s="330"/>
+      <c r="C1" s="332" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
-      <c r="I1" s="337"/>
-      <c r="J1" s="337"/>
-      <c r="K1" s="337"/>
-      <c r="L1" s="337"/>
-      <c r="M1" s="337"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="333"/>
+      <c r="M1" s="333"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="335"/>
+      <c r="B2" s="331"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -22066,21 +22090,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="339"/>
+      <c r="B3" s="334" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="335"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="340" t="s">
+      <c r="H3" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="340"/>
+      <c r="I3" s="336"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="370" t="s">
+      <c r="R3" s="371" t="s">
         <v>2</v>
       </c>
     </row>
@@ -22095,14 +22119,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="319" t="s">
+      <c r="E4" s="341" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="320"/>
-      <c r="H4" s="321" t="s">
+      <c r="F4" s="342"/>
+      <c r="H4" s="343" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="322"/>
+      <c r="I4" s="344"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -22112,11 +22136,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="356" t="s">
+      <c r="P4" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="357"/>
-      <c r="R4" s="371"/>
+      <c r="Q4" s="358"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -23440,7 +23464,7 @@
         <f t="shared" si="1"/>
         <v>65310</v>
       </c>
-      <c r="Q31" s="236">
+      <c r="Q31" s="243">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -23455,35 +23479,41 @@
         <v>45078</v>
       </c>
       <c r="C32" s="25">
-        <v>0</v>
-      </c>
-      <c r="D32" s="82"/>
+        <v>3900</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>67</v>
+      </c>
       <c r="E32" s="27">
         <v>45078</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>99425</v>
+      </c>
       <c r="G32" s="29"/>
       <c r="H32" s="30">
         <v>45078</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="31">
+        <v>42</v>
+      </c>
       <c r="J32" s="86"/>
       <c r="K32" s="280"/>
       <c r="L32" s="281"/>
       <c r="M32" s="33">
-        <v>0</v>
+        <v>95356</v>
       </c>
       <c r="N32" s="34">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="O32" s="35"/>
       <c r="P32" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99429</v>
+      </c>
+      <c r="Q32" s="243">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="R32" s="238">
         <v>0</v>
@@ -23496,35 +23526,42 @@
         <v>45079</v>
       </c>
       <c r="C33" s="25">
-        <v>0</v>
-      </c>
-      <c r="D33" s="80"/>
+        <v>480</v>
+      </c>
+      <c r="D33" s="80" t="s">
+        <v>100</v>
+      </c>
       <c r="E33" s="27">
         <v>45079</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="28">
+        <v>134912</v>
+      </c>
       <c r="G33" s="29"/>
       <c r="H33" s="30">
         <v>45079</v>
       </c>
-      <c r="I33" s="31"/>
+      <c r="I33" s="31">
+        <v>48</v>
+      </c>
       <c r="J33" s="86"/>
       <c r="K33" s="282"/>
       <c r="L33" s="216"/>
       <c r="M33" s="33">
-        <v>0</v>
+        <f>62500+71481</f>
+        <v>133981</v>
       </c>
       <c r="N33" s="34">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="O33" s="35"/>
       <c r="P33" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>134924</v>
+      </c>
+      <c r="Q33" s="243">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="R33" s="238">
         <v>0</v>
@@ -23537,35 +23574,48 @@
         <v>45080</v>
       </c>
       <c r="C34" s="25">
-        <v>0</v>
-      </c>
-      <c r="D34" s="82"/>
+        <v>15694</v>
+      </c>
+      <c r="D34" s="82" t="s">
+        <v>267</v>
+      </c>
       <c r="E34" s="27">
         <v>45080</v>
       </c>
-      <c r="F34" s="28"/>
+      <c r="F34" s="28">
+        <v>88405</v>
+      </c>
       <c r="G34" s="29"/>
       <c r="H34" s="30">
         <v>45080</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="284"/>
+      <c r="I34" s="31">
+        <v>130</v>
+      </c>
+      <c r="J34" s="86">
+        <v>45080</v>
+      </c>
+      <c r="K34" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="L34" s="284">
+        <v>8700</v>
+      </c>
       <c r="M34" s="33">
-        <v>0</v>
+        <f>19300+43307</f>
+        <v>62607</v>
       </c>
       <c r="N34" s="34">
-        <v>0</v>
+        <v>1314</v>
       </c>
       <c r="O34" s="35"/>
       <c r="P34" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88445</v>
+      </c>
+      <c r="Q34" s="243">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="R34" s="238">
         <v>0</v>
@@ -23577,34 +23627,43 @@
       <c r="B35" s="24">
         <v>45081</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="77"/>
+      <c r="C35" s="25">
+        <v>1800</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>294</v>
+      </c>
       <c r="E35" s="27">
         <v>45081</v>
       </c>
-      <c r="F35" s="28"/>
+      <c r="F35" s="28">
+        <v>98801</v>
+      </c>
       <c r="G35" s="29"/>
       <c r="H35" s="30">
         <v>45081</v>
       </c>
-      <c r="I35" s="31"/>
+      <c r="I35" s="31">
+        <v>21</v>
+      </c>
       <c r="J35" s="86"/>
       <c r="K35" s="282"/>
       <c r="L35" s="216"/>
       <c r="M35" s="33">
-        <v>0</v>
+        <f>43500+53180</f>
+        <v>96680</v>
       </c>
       <c r="N35" s="34">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="O35" s="35"/>
       <c r="P35" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98810</v>
+      </c>
+      <c r="Q35" s="243">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="R35" s="238">
         <v>0</v>
@@ -23654,9 +23713,15 @@
       <c r="G37" s="29"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="286"/>
-      <c r="L37" s="216"/>
+      <c r="J37" s="86">
+        <v>45051</v>
+      </c>
+      <c r="K37" s="373" t="s">
+        <v>295</v>
+      </c>
+      <c r="L37" s="216">
+        <v>377</v>
+      </c>
       <c r="M37" s="33">
         <v>0</v>
       </c>
@@ -23665,7 +23730,6 @@
       </c>
       <c r="O37" s="35"/>
       <c r="P37" s="235">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q37" s="236">
@@ -23687,9 +23751,15 @@
       <c r="G38" s="29"/>
       <c r="H38" s="30"/>
       <c r="I38" s="31"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="282"/>
-      <c r="L38" s="216"/>
+      <c r="J38" s="86">
+        <v>45054</v>
+      </c>
+      <c r="K38" s="282" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" s="216">
+        <v>1225.1199999999999</v>
+      </c>
       <c r="M38" s="33">
         <v>0</v>
       </c>
@@ -23698,7 +23768,6 @@
       </c>
       <c r="O38" s="35"/>
       <c r="P38" s="235">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q38" s="236">
@@ -23720,9 +23789,15 @@
       <c r="G39" s="29"/>
       <c r="H39" s="30"/>
       <c r="I39" s="31"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="231"/>
-      <c r="L39" s="281"/>
+      <c r="J39" s="86">
+        <v>45054</v>
+      </c>
+      <c r="K39" s="374" t="s">
+        <v>298</v>
+      </c>
+      <c r="L39" s="281">
+        <v>14500</v>
+      </c>
       <c r="M39" s="33">
         <v>0</v>
       </c>
@@ -23731,7 +23806,6 @@
       </c>
       <c r="O39" s="35"/>
       <c r="P39" s="235">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q39" s="236">
@@ -23753,9 +23827,15 @@
       <c r="G40" s="29"/>
       <c r="H40" s="30"/>
       <c r="I40" s="31"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="231"/>
-      <c r="L40" s="281"/>
+      <c r="J40" s="86">
+        <v>45061</v>
+      </c>
+      <c r="K40" s="231" t="s">
+        <v>108</v>
+      </c>
+      <c r="L40" s="281">
+        <v>1392</v>
+      </c>
       <c r="M40" s="33">
         <v>0</v>
       </c>
@@ -23764,7 +23844,6 @@
       </c>
       <c r="O40" s="35"/>
       <c r="P40" s="235">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q40" s="236">
@@ -23786,9 +23865,15 @@
       <c r="G41" s="29"/>
       <c r="H41" s="30"/>
       <c r="I41" s="31"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="305"/>
-      <c r="L41" s="281"/>
+      <c r="J41" s="86">
+        <v>45063</v>
+      </c>
+      <c r="K41" s="305" t="s">
+        <v>111</v>
+      </c>
+      <c r="L41" s="281">
+        <v>1098</v>
+      </c>
       <c r="M41" s="33">
         <v>0</v>
       </c>
@@ -23818,9 +23903,15 @@
       <c r="G42" s="29"/>
       <c r="H42" s="30"/>
       <c r="I42" s="31"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="231"/>
-      <c r="L42" s="281"/>
+      <c r="J42" s="86">
+        <v>45077</v>
+      </c>
+      <c r="K42" s="231" t="s">
+        <v>109</v>
+      </c>
+      <c r="L42" s="281">
+        <v>1031.47</v>
+      </c>
       <c r="M42" s="33">
         <v>0</v>
       </c>
@@ -23850,9 +23941,15 @@
       <c r="G43" s="29"/>
       <c r="H43" s="30"/>
       <c r="I43" s="91"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="281"/>
+      <c r="J43" s="86">
+        <v>45081</v>
+      </c>
+      <c r="K43" s="89" t="s">
+        <v>297</v>
+      </c>
+      <c r="L43" s="281">
+        <v>745.84</v>
+      </c>
       <c r="M43" s="33">
         <v>0</v>
       </c>
@@ -23861,7 +23958,6 @@
       </c>
       <c r="O43" s="35"/>
       <c r="P43" s="240">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q43" s="241">
@@ -23917,21 +24013,21 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="341">
+      <c r="M45" s="337">
         <f>SUM(M5:M39)</f>
-        <v>2618965</v>
-      </c>
-      <c r="N45" s="326">
+        <v>3007589</v>
+      </c>
+      <c r="N45" s="348">
         <f>SUM(N5:N39)</f>
-        <v>27583</v>
+        <v>29752</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="1"/>
-        <v>2646548</v>
+        <v>3037341</v>
       </c>
       <c r="Q45" s="99">
         <f>SUM(Q5:Q39)</f>
-        <v>538</v>
+        <v>603</v>
       </c>
       <c r="R45" s="99">
         <f>SUM(R5:R39)</f>
@@ -23951,8 +24047,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="342"/>
-      <c r="N46" s="327"/>
+      <c r="M46" s="338"/>
+      <c r="N46" s="349"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -24002,7 +24098,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>64249</v>
+        <v>86123</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -24010,7 +24106,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>2737190</v>
+        <v>3158733</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -24018,7 +24114,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>4246</v>
+        <v>4487</v>
       </c>
       <c r="J49" s="290"/>
       <c r="K49" s="291" t="s">
@@ -24026,7 +24122,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>50944</v>
+        <v>80013.429999999993</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -24044,32 +24140,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="328" t="s">
+      <c r="H51" s="350" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="329"/>
+      <c r="I51" s="351"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="330">
+      <c r="K51" s="352">
         <f>I49+L49</f>
-        <v>55190</v>
-      </c>
-      <c r="L51" s="331"/>
-      <c r="M51" s="332">
+        <v>84500.43</v>
+      </c>
+      <c r="L51" s="353"/>
+      <c r="M51" s="354">
         <f>N45+M45</f>
-        <v>2646548</v>
-      </c>
-      <c r="N51" s="333"/>
+        <v>3037341</v>
+      </c>
+      <c r="N51" s="355"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="325" t="s">
+      <c r="D52" s="347" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="325"/>
+      <c r="E52" s="347"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>2617751</v>
+        <v>2988109.57</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -24077,22 +24173,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="343" t="s">
+      <c r="D53" s="318" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="343"/>
+      <c r="E53" s="318"/>
       <c r="F53" s="131">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="344" t="s">
+      <c r="I53" s="319" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="345"/>
-      <c r="K53" s="358">
+      <c r="J53" s="320"/>
+      <c r="K53" s="359">
         <f>F55+F56+F57</f>
-        <v>7582.3999999999651</v>
-      </c>
-      <c r="L53" s="359"/>
+        <v>419364.9699999998</v>
+      </c>
+      <c r="L53" s="360"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -24116,18 +24212,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>-338051.29000000004</v>
+        <v>32307.279999999795</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="360">
+      <c r="K55" s="361">
         <f>-C4</f>
         <v>-394548.7</v>
       </c>
-      <c r="L55" s="361"/>
+      <c r="L55" s="362"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -24137,29 +24233,29 @@
         <v>20</v>
       </c>
       <c r="F56" s="149">
-        <v>0</v>
+        <v>41424</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150">
         <v>45081</v>
       </c>
-      <c r="D57" s="350" t="s">
+      <c r="D57" s="325" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="351"/>
+      <c r="E57" s="326"/>
       <c r="F57" s="316">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="367" t="s">
+      <c r="I57" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="368"/>
-      <c r="K57" s="369">
+      <c r="J57" s="367"/>
+      <c r="K57" s="368">
         <f>K53+K55</f>
-        <v>-386966.30000000005</v>
-      </c>
-      <c r="L57" s="369"/>
+        <v>24816.269999999786</v>
+      </c>
+      <c r="L57" s="368"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -24284,6 +24380,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24293,18 +24401,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
